--- a/utilities/offset_calculator.xlsx
+++ b/utilities/offset_calculator.xlsx
@@ -791,7 +791,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -843,6 +843,7 @@
     <xf numFmtId="0" fontId="16" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1206,7 +1207,7 @@
   <dimension ref="A1:CR40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AE42" sqref="AE42"/>
+      <selection activeCell="B38" sqref="B38:Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,1463 +1411,1463 @@
       </c>
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>34283</v>
-      </c>
-      <c r="B3">
-        <v>32919</v>
-      </c>
-      <c r="C3">
-        <v>32791</v>
-      </c>
-      <c r="D3">
-        <v>34580</v>
-      </c>
-      <c r="E3">
-        <v>30009</v>
-      </c>
-      <c r="F3">
-        <v>35776</v>
-      </c>
-      <c r="G3">
-        <v>34728</v>
-      </c>
-      <c r="H3">
-        <v>32133</v>
-      </c>
-      <c r="I3">
-        <v>35765</v>
-      </c>
-      <c r="J3">
-        <v>35969</v>
-      </c>
-      <c r="K3">
-        <v>27475</v>
-      </c>
-      <c r="L3">
-        <v>28697</v>
-      </c>
-      <c r="M3">
-        <v>34074</v>
-      </c>
-      <c r="N3">
-        <v>34384</v>
-      </c>
-      <c r="O3">
-        <v>22066</v>
-      </c>
-      <c r="P3">
-        <v>34316</v>
-      </c>
-      <c r="Q3">
-        <v>43461</v>
-      </c>
-      <c r="R3">
-        <v>8480</v>
-      </c>
-      <c r="S3">
-        <v>49176</v>
-      </c>
-      <c r="T3">
-        <v>35577</v>
-      </c>
-      <c r="U3">
-        <v>44820</v>
-      </c>
-      <c r="V3">
-        <v>32259</v>
-      </c>
-      <c r="W3">
-        <v>33346</v>
-      </c>
-      <c r="X3">
-        <v>13021</v>
-      </c>
-      <c r="Y3">
-        <v>34665</v>
-      </c>
-      <c r="Z3">
-        <v>32077</v>
-      </c>
-      <c r="AA3">
-        <v>26974</v>
-      </c>
-      <c r="AB3">
-        <v>34027</v>
-      </c>
-      <c r="AC3">
-        <v>32636</v>
-      </c>
-      <c r="AD3">
-        <v>30502</v>
-      </c>
-      <c r="AE3">
-        <v>33398</v>
-      </c>
-      <c r="AF3">
-        <v>33407</v>
-      </c>
-      <c r="AG3">
-        <v>34374</v>
-      </c>
-      <c r="AH3">
-        <v>37393</v>
-      </c>
-      <c r="AI3">
-        <v>37542</v>
-      </c>
-      <c r="AJ3">
-        <v>22967</v>
-      </c>
-      <c r="AK3">
-        <v>33115</v>
-      </c>
-      <c r="AL3">
-        <v>34169</v>
-      </c>
-      <c r="AM3">
-        <v>24561</v>
-      </c>
-      <c r="AN3">
-        <v>36673</v>
-      </c>
-      <c r="AO3">
-        <v>33721</v>
-      </c>
-      <c r="AP3">
-        <v>21475</v>
-      </c>
-      <c r="AQ3">
-        <v>35193</v>
-      </c>
-      <c r="AR3">
-        <v>36870</v>
-      </c>
-      <c r="AS3">
-        <v>17439</v>
-      </c>
-      <c r="AT3">
-        <v>39469</v>
-      </c>
-      <c r="AU3">
-        <v>38419</v>
-      </c>
-      <c r="AV3">
-        <v>12502</v>
+      <c r="A3" s="31">
+        <v>29760</v>
+      </c>
+      <c r="B3" s="31">
+        <v>20889</v>
+      </c>
+      <c r="C3" s="31">
+        <v>3631</v>
+      </c>
+      <c r="D3" s="31">
+        <v>27168</v>
+      </c>
+      <c r="E3" s="31">
+        <v>29948</v>
+      </c>
+      <c r="F3" s="31">
+        <v>7430</v>
+      </c>
+      <c r="G3" s="31">
+        <v>28058</v>
+      </c>
+      <c r="H3" s="31">
+        <v>24154</v>
+      </c>
+      <c r="I3" s="31">
+        <v>10108</v>
+      </c>
+      <c r="J3" s="31">
+        <v>27354</v>
+      </c>
+      <c r="K3" s="31">
+        <v>28883</v>
+      </c>
+      <c r="L3" s="31">
+        <v>5143</v>
+      </c>
+      <c r="M3" s="31">
+        <v>31153</v>
+      </c>
+      <c r="N3" s="31">
+        <v>27798</v>
+      </c>
+      <c r="O3" s="31">
+        <v>2843</v>
+      </c>
+      <c r="P3" s="31">
+        <v>28735</v>
+      </c>
+      <c r="Q3" s="31">
+        <v>26837</v>
+      </c>
+      <c r="R3" s="31">
+        <v>3486</v>
+      </c>
+      <c r="S3" s="31">
+        <v>28711</v>
+      </c>
+      <c r="T3" s="31">
+        <v>24980</v>
+      </c>
+      <c r="U3" s="31">
+        <v>6367</v>
+      </c>
+      <c r="V3" s="31">
+        <v>28787</v>
+      </c>
+      <c r="W3" s="31">
+        <v>29338</v>
+      </c>
+      <c r="X3" s="31">
+        <v>5092</v>
+      </c>
+      <c r="Y3" s="31">
+        <v>31363</v>
+      </c>
+      <c r="Z3" s="31">
+        <v>27326</v>
+      </c>
+      <c r="AA3" s="31">
+        <v>1423</v>
+      </c>
+      <c r="AB3" s="31">
+        <v>30188</v>
+      </c>
+      <c r="AC3" s="31">
+        <v>27262</v>
+      </c>
+      <c r="AD3" s="31">
+        <v>61217</v>
+      </c>
+      <c r="AE3" s="31">
+        <v>29547</v>
+      </c>
+      <c r="AF3" s="31">
+        <v>27412</v>
+      </c>
+      <c r="AG3" s="31">
+        <v>5627</v>
+      </c>
+      <c r="AH3" s="31">
+        <v>29019</v>
+      </c>
+      <c r="AI3" s="31">
+        <v>29495</v>
+      </c>
+      <c r="AJ3" s="31">
+        <v>60400</v>
+      </c>
+      <c r="AK3" s="31">
+        <v>30710</v>
+      </c>
+      <c r="AL3" s="31">
+        <v>30615</v>
+      </c>
+      <c r="AM3" s="31">
+        <v>444</v>
+      </c>
+      <c r="AN3" s="31">
+        <v>28524</v>
+      </c>
+      <c r="AO3" s="31">
+        <v>25456</v>
+      </c>
+      <c r="AP3" s="31">
+        <v>6457</v>
+      </c>
+      <c r="AQ3" s="31">
+        <v>31396</v>
+      </c>
+      <c r="AR3" s="31">
+        <v>23672</v>
+      </c>
+      <c r="AS3" s="31">
+        <v>4078</v>
+      </c>
+      <c r="AT3" s="31">
+        <v>28671</v>
+      </c>
+      <c r="AU3" s="31">
+        <v>26265</v>
+      </c>
+      <c r="AV3" s="31">
+        <v>4875</v>
       </c>
     </row>
     <row r="4" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>34286</v>
-      </c>
-      <c r="B4">
-        <v>32915</v>
-      </c>
-      <c r="C4">
-        <v>32794</v>
-      </c>
-      <c r="D4">
-        <v>34575</v>
-      </c>
-      <c r="E4">
-        <v>30014</v>
-      </c>
-      <c r="F4">
-        <v>35775</v>
-      </c>
-      <c r="G4">
-        <v>34732</v>
-      </c>
-      <c r="H4">
-        <v>32142</v>
-      </c>
-      <c r="I4">
-        <v>35761</v>
-      </c>
-      <c r="J4">
-        <v>35968</v>
-      </c>
-      <c r="K4">
-        <v>27474</v>
-      </c>
-      <c r="L4">
-        <v>28698</v>
-      </c>
-      <c r="M4">
-        <v>34076</v>
-      </c>
-      <c r="N4">
-        <v>34384</v>
-      </c>
-      <c r="O4">
-        <v>22075</v>
-      </c>
-      <c r="P4">
-        <v>34319</v>
-      </c>
-      <c r="Q4">
-        <v>43479</v>
-      </c>
-      <c r="R4">
-        <v>8530</v>
-      </c>
-      <c r="S4">
-        <v>49148</v>
-      </c>
-      <c r="T4">
-        <v>35573</v>
-      </c>
-      <c r="U4">
-        <v>44803</v>
-      </c>
-      <c r="V4">
-        <v>32261</v>
-      </c>
-      <c r="W4">
-        <v>33342</v>
-      </c>
-      <c r="X4">
-        <v>13046</v>
-      </c>
-      <c r="Y4">
-        <v>34659</v>
-      </c>
-      <c r="Z4">
-        <v>32070</v>
-      </c>
-      <c r="AA4">
-        <v>26974</v>
-      </c>
-      <c r="AB4">
-        <v>34031</v>
-      </c>
-      <c r="AC4">
-        <v>32648</v>
-      </c>
-      <c r="AD4">
-        <v>30497</v>
-      </c>
-      <c r="AE4">
-        <v>33392</v>
-      </c>
-      <c r="AF4">
-        <v>33407</v>
-      </c>
-      <c r="AG4">
-        <v>34373</v>
-      </c>
-      <c r="AH4">
-        <v>37389</v>
-      </c>
-      <c r="AI4">
-        <v>37537</v>
-      </c>
-      <c r="AJ4">
-        <v>22971</v>
-      </c>
-      <c r="AK4">
-        <v>33118</v>
-      </c>
-      <c r="AL4">
-        <v>34180</v>
-      </c>
-      <c r="AM4">
-        <v>24560</v>
-      </c>
-      <c r="AN4">
-        <v>36669</v>
-      </c>
-      <c r="AO4">
-        <v>33722</v>
-      </c>
-      <c r="AP4">
-        <v>21492</v>
-      </c>
-      <c r="AQ4">
-        <v>35192</v>
-      </c>
-      <c r="AR4">
-        <v>36870</v>
-      </c>
-      <c r="AS4">
-        <v>17448</v>
-      </c>
-      <c r="AT4">
-        <v>39476</v>
-      </c>
-      <c r="AU4">
-        <v>38418</v>
-      </c>
-      <c r="AV4">
-        <v>12483</v>
+      <c r="A4" s="31">
+        <v>29756</v>
+      </c>
+      <c r="B4" s="31">
+        <v>20884</v>
+      </c>
+      <c r="C4" s="31">
+        <v>3616</v>
+      </c>
+      <c r="D4" s="31">
+        <v>27163</v>
+      </c>
+      <c r="E4" s="31">
+        <v>29949</v>
+      </c>
+      <c r="F4" s="31">
+        <v>7459</v>
+      </c>
+      <c r="G4" s="31">
+        <v>28048</v>
+      </c>
+      <c r="H4" s="31">
+        <v>24136</v>
+      </c>
+      <c r="I4" s="31">
+        <v>10063</v>
+      </c>
+      <c r="J4" s="31">
+        <v>27354</v>
+      </c>
+      <c r="K4" s="31">
+        <v>28874</v>
+      </c>
+      <c r="L4" s="31">
+        <v>5181</v>
+      </c>
+      <c r="M4" s="31">
+        <v>31151</v>
+      </c>
+      <c r="N4" s="31">
+        <v>27798</v>
+      </c>
+      <c r="O4" s="31">
+        <v>2840</v>
+      </c>
+      <c r="P4" s="31">
+        <v>28734</v>
+      </c>
+      <c r="Q4" s="31">
+        <v>26834</v>
+      </c>
+      <c r="R4" s="31">
+        <v>3516</v>
+      </c>
+      <c r="S4" s="31">
+        <v>28708</v>
+      </c>
+      <c r="T4" s="31">
+        <v>24978</v>
+      </c>
+      <c r="U4" s="31">
+        <v>6376</v>
+      </c>
+      <c r="V4" s="31">
+        <v>28782</v>
+      </c>
+      <c r="W4" s="31">
+        <v>29337</v>
+      </c>
+      <c r="X4" s="31">
+        <v>5118</v>
+      </c>
+      <c r="Y4" s="31">
+        <v>31373</v>
+      </c>
+      <c r="Z4" s="31">
+        <v>27326</v>
+      </c>
+      <c r="AA4" s="31">
+        <v>1465</v>
+      </c>
+      <c r="AB4" s="31">
+        <v>30183</v>
+      </c>
+      <c r="AC4" s="31">
+        <v>27264</v>
+      </c>
+      <c r="AD4" s="31">
+        <v>61216</v>
+      </c>
+      <c r="AE4" s="31">
+        <v>29538</v>
+      </c>
+      <c r="AF4" s="31">
+        <v>27403</v>
+      </c>
+      <c r="AG4" s="31">
+        <v>5665</v>
+      </c>
+      <c r="AH4" s="31">
+        <v>29020</v>
+      </c>
+      <c r="AI4" s="31">
+        <v>29507</v>
+      </c>
+      <c r="AJ4" s="31">
+        <v>60383</v>
+      </c>
+      <c r="AK4" s="31">
+        <v>30707</v>
+      </c>
+      <c r="AL4" s="31">
+        <v>30608</v>
+      </c>
+      <c r="AM4" s="31">
+        <v>401</v>
+      </c>
+      <c r="AN4" s="31">
+        <v>28517</v>
+      </c>
+      <c r="AO4" s="31">
+        <v>25440</v>
+      </c>
+      <c r="AP4" s="31">
+        <v>6388</v>
+      </c>
+      <c r="AQ4" s="31">
+        <v>31398</v>
+      </c>
+      <c r="AR4" s="31">
+        <v>23669</v>
+      </c>
+      <c r="AS4" s="31">
+        <v>4129</v>
+      </c>
+      <c r="AT4" s="31">
+        <v>28674</v>
+      </c>
+      <c r="AU4" s="31">
+        <v>26265</v>
+      </c>
+      <c r="AV4" s="31">
+        <v>4881</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>34284</v>
-      </c>
-      <c r="B5">
-        <v>32918</v>
-      </c>
-      <c r="C5">
-        <v>32775</v>
-      </c>
-      <c r="D5">
-        <v>34575</v>
-      </c>
-      <c r="E5">
-        <v>30003</v>
-      </c>
-      <c r="F5">
-        <v>35777</v>
-      </c>
-      <c r="G5">
-        <v>34725</v>
-      </c>
-      <c r="H5">
-        <v>32138</v>
-      </c>
-      <c r="I5">
-        <v>35763</v>
-      </c>
-      <c r="J5">
-        <v>35969</v>
-      </c>
-      <c r="K5">
-        <v>27472</v>
-      </c>
-      <c r="L5">
-        <v>28697</v>
-      </c>
-      <c r="M5">
-        <v>34075</v>
-      </c>
-      <c r="N5">
-        <v>34387</v>
-      </c>
-      <c r="O5">
-        <v>22068</v>
-      </c>
-      <c r="P5">
-        <v>34319</v>
-      </c>
-      <c r="Q5">
-        <v>43490</v>
-      </c>
-      <c r="R5">
-        <v>8547</v>
-      </c>
-      <c r="S5">
-        <v>49166</v>
-      </c>
-      <c r="T5">
-        <v>35577</v>
-      </c>
-      <c r="U5">
-        <v>44795</v>
-      </c>
-      <c r="V5">
-        <v>32266</v>
-      </c>
-      <c r="W5">
-        <v>33339</v>
-      </c>
-      <c r="X5">
-        <v>13020</v>
-      </c>
-      <c r="Y5">
-        <v>34664</v>
-      </c>
-      <c r="Z5">
-        <v>32070</v>
-      </c>
-      <c r="AA5">
-        <v>26980</v>
-      </c>
-      <c r="AB5">
-        <v>34029</v>
-      </c>
-      <c r="AC5">
-        <v>32646</v>
-      </c>
-      <c r="AD5">
-        <v>30492</v>
-      </c>
-      <c r="AE5">
-        <v>33394</v>
-      </c>
-      <c r="AF5">
-        <v>33409</v>
-      </c>
-      <c r="AG5">
-        <v>34368</v>
-      </c>
-      <c r="AH5">
-        <v>37388</v>
-      </c>
-      <c r="AI5">
-        <v>37536</v>
-      </c>
-      <c r="AJ5">
-        <v>22976</v>
-      </c>
-      <c r="AK5">
-        <v>33115</v>
-      </c>
-      <c r="AL5">
-        <v>34182</v>
-      </c>
-      <c r="AM5">
-        <v>24537</v>
-      </c>
-      <c r="AN5">
-        <v>36667</v>
-      </c>
-      <c r="AO5">
-        <v>33719</v>
-      </c>
-      <c r="AP5">
-        <v>21480</v>
-      </c>
-      <c r="AQ5">
-        <v>35188</v>
-      </c>
-      <c r="AR5">
-        <v>36871</v>
-      </c>
-      <c r="AS5">
-        <v>17444</v>
-      </c>
-      <c r="AT5">
-        <v>39473</v>
-      </c>
-      <c r="AU5">
-        <v>38418</v>
-      </c>
-      <c r="AV5">
-        <v>12478</v>
+      <c r="A5" s="31">
+        <v>29760</v>
+      </c>
+      <c r="B5" s="31">
+        <v>20893</v>
+      </c>
+      <c r="C5" s="31">
+        <v>3577</v>
+      </c>
+      <c r="D5" s="31">
+        <v>27168</v>
+      </c>
+      <c r="E5" s="31">
+        <v>29953</v>
+      </c>
+      <c r="F5" s="31">
+        <v>7514</v>
+      </c>
+      <c r="G5" s="31">
+        <v>28059</v>
+      </c>
+      <c r="H5" s="31">
+        <v>24152</v>
+      </c>
+      <c r="I5" s="31">
+        <v>10086</v>
+      </c>
+      <c r="J5" s="31">
+        <v>27366</v>
+      </c>
+      <c r="K5" s="31">
+        <v>28877</v>
+      </c>
+      <c r="L5" s="31">
+        <v>5195</v>
+      </c>
+      <c r="M5" s="31">
+        <v>31151</v>
+      </c>
+      <c r="N5" s="31">
+        <v>27809</v>
+      </c>
+      <c r="O5" s="31">
+        <v>2789</v>
+      </c>
+      <c r="P5" s="31">
+        <v>28737</v>
+      </c>
+      <c r="Q5" s="31">
+        <v>26830</v>
+      </c>
+      <c r="R5" s="31">
+        <v>3538</v>
+      </c>
+      <c r="S5" s="31">
+        <v>28708</v>
+      </c>
+      <c r="T5" s="31">
+        <v>24984</v>
+      </c>
+      <c r="U5" s="31">
+        <v>6384</v>
+      </c>
+      <c r="V5" s="31">
+        <v>28786</v>
+      </c>
+      <c r="W5" s="31">
+        <v>29334</v>
+      </c>
+      <c r="X5" s="31">
+        <v>5078</v>
+      </c>
+      <c r="Y5" s="31">
+        <v>31368</v>
+      </c>
+      <c r="Z5" s="31">
+        <v>27325</v>
+      </c>
+      <c r="AA5" s="31">
+        <v>1427</v>
+      </c>
+      <c r="AB5" s="31">
+        <v>30186</v>
+      </c>
+      <c r="AC5" s="31">
+        <v>27272</v>
+      </c>
+      <c r="AD5" s="31">
+        <v>61223</v>
+      </c>
+      <c r="AE5" s="31">
+        <v>29544</v>
+      </c>
+      <c r="AF5" s="31">
+        <v>27416</v>
+      </c>
+      <c r="AG5" s="31">
+        <v>5611</v>
+      </c>
+      <c r="AH5" s="31">
+        <v>29025</v>
+      </c>
+      <c r="AI5" s="31">
+        <v>29501</v>
+      </c>
+      <c r="AJ5" s="31">
+        <v>60372</v>
+      </c>
+      <c r="AK5" s="31">
+        <v>30707</v>
+      </c>
+      <c r="AL5" s="31">
+        <v>30616</v>
+      </c>
+      <c r="AM5" s="31">
+        <v>382</v>
+      </c>
+      <c r="AN5" s="31">
+        <v>28526</v>
+      </c>
+      <c r="AO5" s="31">
+        <v>25449</v>
+      </c>
+      <c r="AP5" s="31">
+        <v>6381</v>
+      </c>
+      <c r="AQ5" s="31">
+        <v>31395</v>
+      </c>
+      <c r="AR5" s="31">
+        <v>23661</v>
+      </c>
+      <c r="AS5" s="31">
+        <v>4146</v>
+      </c>
+      <c r="AT5" s="31">
+        <v>28673</v>
+      </c>
+      <c r="AU5" s="31">
+        <v>26263</v>
+      </c>
+      <c r="AV5" s="31">
+        <v>4911</v>
       </c>
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>34281</v>
-      </c>
-      <c r="B6">
-        <v>32918</v>
-      </c>
-      <c r="C6">
-        <v>32780</v>
-      </c>
-      <c r="D6">
-        <v>34576</v>
-      </c>
-      <c r="E6">
-        <v>30005</v>
-      </c>
-      <c r="F6">
-        <v>35779</v>
-      </c>
-      <c r="G6">
-        <v>34730</v>
-      </c>
-      <c r="H6">
-        <v>32135</v>
-      </c>
-      <c r="I6">
-        <v>35757</v>
-      </c>
-      <c r="J6">
-        <v>35963</v>
-      </c>
-      <c r="K6">
-        <v>27473</v>
-      </c>
-      <c r="L6">
-        <v>28700</v>
-      </c>
-      <c r="M6">
-        <v>34080</v>
-      </c>
-      <c r="N6">
-        <v>34385</v>
-      </c>
-      <c r="O6">
-        <v>22075</v>
-      </c>
-      <c r="P6">
-        <v>34320</v>
-      </c>
-      <c r="Q6">
-        <v>43478</v>
-      </c>
-      <c r="R6">
-        <v>8536</v>
-      </c>
-      <c r="S6">
-        <v>49181</v>
-      </c>
-      <c r="T6">
-        <v>35581</v>
-      </c>
-      <c r="U6">
-        <v>44819</v>
-      </c>
-      <c r="V6">
-        <v>32261</v>
-      </c>
-      <c r="W6">
-        <v>33342</v>
-      </c>
-      <c r="X6">
-        <v>12999</v>
-      </c>
-      <c r="Y6">
-        <v>34662</v>
-      </c>
-      <c r="Z6">
-        <v>32072</v>
-      </c>
-      <c r="AA6">
-        <v>26967</v>
-      </c>
-      <c r="AB6">
-        <v>34034</v>
-      </c>
-      <c r="AC6">
-        <v>32638</v>
-      </c>
-      <c r="AD6">
-        <v>30487</v>
-      </c>
-      <c r="AE6">
-        <v>33395</v>
-      </c>
-      <c r="AF6">
-        <v>33409</v>
-      </c>
-      <c r="AG6">
-        <v>34381</v>
-      </c>
-      <c r="AH6">
-        <v>37389</v>
-      </c>
-      <c r="AI6">
-        <v>37543</v>
-      </c>
-      <c r="AJ6">
-        <v>22969</v>
-      </c>
-      <c r="AK6">
-        <v>33114</v>
-      </c>
-      <c r="AL6">
-        <v>34186</v>
-      </c>
-      <c r="AM6">
-        <v>24536</v>
-      </c>
-      <c r="AN6">
-        <v>36671</v>
-      </c>
-      <c r="AO6">
-        <v>33721</v>
-      </c>
-      <c r="AP6">
-        <v>21482</v>
-      </c>
-      <c r="AQ6">
-        <v>35190</v>
-      </c>
-      <c r="AR6">
-        <v>36869</v>
-      </c>
-      <c r="AS6">
-        <v>17452</v>
-      </c>
-      <c r="AT6">
-        <v>39474</v>
-      </c>
-      <c r="AU6">
-        <v>38415</v>
-      </c>
-      <c r="AV6">
-        <v>12491</v>
+      <c r="A6" s="31">
+        <v>29766</v>
+      </c>
+      <c r="B6" s="31">
+        <v>20910</v>
+      </c>
+      <c r="C6" s="31">
+        <v>3545</v>
+      </c>
+      <c r="D6" s="31">
+        <v>27175</v>
+      </c>
+      <c r="E6" s="31">
+        <v>29949</v>
+      </c>
+      <c r="F6" s="31">
+        <v>7397</v>
+      </c>
+      <c r="G6" s="31">
+        <v>28057</v>
+      </c>
+      <c r="H6" s="31">
+        <v>24145</v>
+      </c>
+      <c r="I6" s="31">
+        <v>10126</v>
+      </c>
+      <c r="J6" s="31">
+        <v>27359</v>
+      </c>
+      <c r="K6" s="31">
+        <v>28879</v>
+      </c>
+      <c r="L6" s="31">
+        <v>5136</v>
+      </c>
+      <c r="M6" s="31">
+        <v>31151</v>
+      </c>
+      <c r="N6" s="31">
+        <v>27796</v>
+      </c>
+      <c r="O6" s="31">
+        <v>2814</v>
+      </c>
+      <c r="P6" s="31">
+        <v>28731</v>
+      </c>
+      <c r="Q6" s="31">
+        <v>26811</v>
+      </c>
+      <c r="R6" s="31">
+        <v>3570</v>
+      </c>
+      <c r="S6" s="31">
+        <v>28712</v>
+      </c>
+      <c r="T6" s="31">
+        <v>24988</v>
+      </c>
+      <c r="U6" s="31">
+        <v>6375</v>
+      </c>
+      <c r="V6" s="31">
+        <v>28779</v>
+      </c>
+      <c r="W6" s="31">
+        <v>29327</v>
+      </c>
+      <c r="X6" s="31">
+        <v>5145</v>
+      </c>
+      <c r="Y6" s="31">
+        <v>31366</v>
+      </c>
+      <c r="Z6" s="31">
+        <v>27326</v>
+      </c>
+      <c r="AA6" s="31">
+        <v>1455</v>
+      </c>
+      <c r="AB6" s="31">
+        <v>30184</v>
+      </c>
+      <c r="AC6" s="31">
+        <v>27248</v>
+      </c>
+      <c r="AD6" s="31">
+        <v>61239</v>
+      </c>
+      <c r="AE6" s="31">
+        <v>29546</v>
+      </c>
+      <c r="AF6" s="31">
+        <v>27415</v>
+      </c>
+      <c r="AG6" s="31">
+        <v>5707</v>
+      </c>
+      <c r="AH6" s="31">
+        <v>29015</v>
+      </c>
+      <c r="AI6" s="31">
+        <v>29494</v>
+      </c>
+      <c r="AJ6" s="31">
+        <v>60385</v>
+      </c>
+      <c r="AK6" s="31">
+        <v>30704</v>
+      </c>
+      <c r="AL6" s="31">
+        <v>30616</v>
+      </c>
+      <c r="AM6" s="31">
+        <v>444</v>
+      </c>
+      <c r="AN6" s="31">
+        <v>28521</v>
+      </c>
+      <c r="AO6" s="31">
+        <v>25444</v>
+      </c>
+      <c r="AP6" s="31">
+        <v>6378</v>
+      </c>
+      <c r="AQ6" s="31">
+        <v>31400</v>
+      </c>
+      <c r="AR6" s="31">
+        <v>23655</v>
+      </c>
+      <c r="AS6" s="31">
+        <v>4127</v>
+      </c>
+      <c r="AT6" s="31">
+        <v>28669</v>
+      </c>
+      <c r="AU6" s="31">
+        <v>26264</v>
+      </c>
+      <c r="AV6" s="31">
+        <v>4905</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>34284</v>
-      </c>
-      <c r="B7">
-        <v>32913</v>
-      </c>
-      <c r="C7">
-        <v>32779</v>
-      </c>
-      <c r="D7">
-        <v>34577</v>
-      </c>
-      <c r="E7">
-        <v>30005</v>
-      </c>
-      <c r="F7">
-        <v>35776</v>
-      </c>
-      <c r="G7">
-        <v>34726</v>
-      </c>
-      <c r="H7">
-        <v>32133</v>
-      </c>
-      <c r="I7">
-        <v>35762</v>
-      </c>
-      <c r="J7">
-        <v>35975</v>
-      </c>
-      <c r="K7">
-        <v>27469</v>
-      </c>
-      <c r="L7">
-        <v>28691</v>
-      </c>
-      <c r="M7">
-        <v>34078</v>
-      </c>
-      <c r="N7">
-        <v>34390</v>
-      </c>
-      <c r="O7">
-        <v>22066</v>
-      </c>
-      <c r="P7">
-        <v>34317</v>
-      </c>
-      <c r="Q7">
-        <v>43476</v>
-      </c>
-      <c r="R7">
-        <v>8528</v>
-      </c>
-      <c r="S7">
-        <v>49183</v>
-      </c>
-      <c r="T7">
-        <v>35576</v>
-      </c>
-      <c r="U7">
-        <v>44838</v>
-      </c>
-      <c r="V7">
-        <v>32259</v>
-      </c>
-      <c r="W7">
-        <v>33338</v>
-      </c>
-      <c r="X7">
-        <v>13020</v>
-      </c>
-      <c r="Y7">
-        <v>34661</v>
-      </c>
-      <c r="Z7">
-        <v>32071</v>
-      </c>
-      <c r="AA7">
-        <v>26969</v>
-      </c>
-      <c r="AB7">
-        <v>34033</v>
-      </c>
-      <c r="AC7">
-        <v>32641</v>
-      </c>
-      <c r="AD7">
-        <v>30484</v>
-      </c>
-      <c r="AE7">
-        <v>33397</v>
-      </c>
-      <c r="AF7">
-        <v>33404</v>
-      </c>
-      <c r="AG7">
-        <v>34377</v>
-      </c>
-      <c r="AH7">
-        <v>37389</v>
-      </c>
-      <c r="AI7">
-        <v>37542</v>
-      </c>
-      <c r="AJ7">
-        <v>22975</v>
-      </c>
-      <c r="AK7">
-        <v>33115</v>
-      </c>
-      <c r="AL7">
-        <v>34188</v>
-      </c>
-      <c r="AM7">
-        <v>24542</v>
-      </c>
-      <c r="AN7">
-        <v>36669</v>
-      </c>
-      <c r="AO7">
-        <v>33719</v>
-      </c>
-      <c r="AP7">
-        <v>21485</v>
-      </c>
-      <c r="AQ7">
-        <v>35189</v>
-      </c>
-      <c r="AR7">
-        <v>36867</v>
-      </c>
-      <c r="AS7">
-        <v>17468</v>
-      </c>
-      <c r="AT7">
-        <v>39477</v>
-      </c>
-      <c r="AU7">
-        <v>38430</v>
-      </c>
-      <c r="AV7">
-        <v>12482</v>
+      <c r="A7" s="31">
+        <v>29759</v>
+      </c>
+      <c r="B7" s="31">
+        <v>20903</v>
+      </c>
+      <c r="C7" s="31">
+        <v>3555</v>
+      </c>
+      <c r="D7" s="31">
+        <v>27171</v>
+      </c>
+      <c r="E7" s="31">
+        <v>29947</v>
+      </c>
+      <c r="F7" s="31">
+        <v>7369</v>
+      </c>
+      <c r="G7" s="31">
+        <v>28048</v>
+      </c>
+      <c r="H7" s="31">
+        <v>24128</v>
+      </c>
+      <c r="I7" s="31">
+        <v>10078</v>
+      </c>
+      <c r="J7" s="31">
+        <v>27356</v>
+      </c>
+      <c r="K7" s="31">
+        <v>28871</v>
+      </c>
+      <c r="L7" s="31">
+        <v>5168</v>
+      </c>
+      <c r="M7" s="31">
+        <v>31151</v>
+      </c>
+      <c r="N7" s="31">
+        <v>27799</v>
+      </c>
+      <c r="O7" s="31">
+        <v>2822</v>
+      </c>
+      <c r="P7" s="31">
+        <v>28737</v>
+      </c>
+      <c r="Q7" s="31">
+        <v>26824</v>
+      </c>
+      <c r="R7" s="31">
+        <v>3570</v>
+      </c>
+      <c r="S7" s="31">
+        <v>28711</v>
+      </c>
+      <c r="T7" s="31">
+        <v>24993</v>
+      </c>
+      <c r="U7" s="31">
+        <v>6336</v>
+      </c>
+      <c r="V7" s="31">
+        <v>28788</v>
+      </c>
+      <c r="W7" s="31">
+        <v>29332</v>
+      </c>
+      <c r="X7" s="31">
+        <v>5115</v>
+      </c>
+      <c r="Y7" s="31">
+        <v>31371</v>
+      </c>
+      <c r="Z7" s="31">
+        <v>27321</v>
+      </c>
+      <c r="AA7" s="31">
+        <v>1438</v>
+      </c>
+      <c r="AB7" s="31">
+        <v>30178</v>
+      </c>
+      <c r="AC7" s="31">
+        <v>27251</v>
+      </c>
+      <c r="AD7" s="31">
+        <v>61268</v>
+      </c>
+      <c r="AE7" s="31">
+        <v>29544</v>
+      </c>
+      <c r="AF7" s="31">
+        <v>27405</v>
+      </c>
+      <c r="AG7" s="31">
+        <v>5658</v>
+      </c>
+      <c r="AH7" s="31">
+        <v>29013</v>
+      </c>
+      <c r="AI7" s="31">
+        <v>29490</v>
+      </c>
+      <c r="AJ7" s="31">
+        <v>60413</v>
+      </c>
+      <c r="AK7" s="31">
+        <v>30702</v>
+      </c>
+      <c r="AL7" s="31">
+        <v>30612</v>
+      </c>
+      <c r="AM7" s="31">
+        <v>452</v>
+      </c>
+      <c r="AN7" s="31">
+        <v>28524</v>
+      </c>
+      <c r="AO7" s="31">
+        <v>25452</v>
+      </c>
+      <c r="AP7" s="31">
+        <v>6384</v>
+      </c>
+      <c r="AQ7" s="31">
+        <v>31395</v>
+      </c>
+      <c r="AR7" s="31">
+        <v>23665</v>
+      </c>
+      <c r="AS7" s="31">
+        <v>4096</v>
+      </c>
+      <c r="AT7" s="31">
+        <v>28673</v>
+      </c>
+      <c r="AU7" s="31">
+        <v>26256</v>
+      </c>
+      <c r="AV7" s="31">
+        <v>4926</v>
       </c>
     </row>
     <row r="8" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>34282</v>
-      </c>
-      <c r="B8">
-        <v>32930</v>
-      </c>
-      <c r="C8">
-        <v>32784</v>
-      </c>
-      <c r="D8">
-        <v>34576</v>
-      </c>
-      <c r="E8">
-        <v>30016</v>
-      </c>
-      <c r="F8">
-        <v>35777</v>
-      </c>
-      <c r="G8">
-        <v>34725</v>
-      </c>
-      <c r="H8">
-        <v>32141</v>
-      </c>
-      <c r="I8">
-        <v>35758</v>
-      </c>
-      <c r="J8">
-        <v>35971</v>
-      </c>
-      <c r="K8">
-        <v>27464</v>
-      </c>
-      <c r="L8">
-        <v>28691</v>
-      </c>
-      <c r="M8">
-        <v>34079</v>
-      </c>
-      <c r="N8">
-        <v>34385</v>
-      </c>
-      <c r="O8">
-        <v>22079</v>
-      </c>
-      <c r="P8">
-        <v>34319</v>
-      </c>
-      <c r="Q8">
-        <v>43469</v>
-      </c>
-      <c r="R8">
-        <v>8515</v>
-      </c>
-      <c r="S8">
-        <v>49175</v>
-      </c>
-      <c r="T8">
-        <v>35582</v>
-      </c>
-      <c r="U8">
-        <v>44811</v>
-      </c>
-      <c r="V8">
-        <v>32265</v>
-      </c>
-      <c r="W8">
-        <v>33342</v>
-      </c>
-      <c r="X8">
-        <v>13010</v>
-      </c>
-      <c r="Y8">
-        <v>34662</v>
-      </c>
-      <c r="Z8">
-        <v>32075</v>
-      </c>
-      <c r="AA8">
-        <v>26976</v>
-      </c>
-      <c r="AB8">
-        <v>34030</v>
-      </c>
-      <c r="AC8">
-        <v>32645</v>
-      </c>
-      <c r="AD8">
-        <v>30487</v>
-      </c>
-      <c r="AE8">
-        <v>33398</v>
-      </c>
-      <c r="AF8">
-        <v>33400</v>
-      </c>
-      <c r="AG8">
-        <v>34371</v>
-      </c>
-      <c r="AH8">
-        <v>37390</v>
-      </c>
-      <c r="AI8">
-        <v>37541</v>
-      </c>
-      <c r="AJ8">
-        <v>22966</v>
-      </c>
-      <c r="AK8">
-        <v>33118</v>
-      </c>
-      <c r="AL8">
-        <v>34174</v>
-      </c>
-      <c r="AM8">
-        <v>24556</v>
-      </c>
-      <c r="AN8">
-        <v>36667</v>
-      </c>
-      <c r="AO8">
-        <v>33722</v>
-      </c>
-      <c r="AP8">
-        <v>21485</v>
-      </c>
-      <c r="AQ8">
-        <v>35187</v>
-      </c>
-      <c r="AR8">
-        <v>36874</v>
-      </c>
-      <c r="AS8">
-        <v>17448</v>
-      </c>
-      <c r="AT8">
-        <v>39480</v>
-      </c>
-      <c r="AU8">
-        <v>38426</v>
-      </c>
-      <c r="AV8">
-        <v>12476</v>
+      <c r="A8" s="31">
+        <v>29765</v>
+      </c>
+      <c r="B8" s="31">
+        <v>20894</v>
+      </c>
+      <c r="C8" s="31">
+        <v>3573</v>
+      </c>
+      <c r="D8" s="31">
+        <v>27169</v>
+      </c>
+      <c r="E8" s="31">
+        <v>29950</v>
+      </c>
+      <c r="F8" s="31">
+        <v>7435</v>
+      </c>
+      <c r="G8" s="31">
+        <v>28055</v>
+      </c>
+      <c r="H8" s="31">
+        <v>24152</v>
+      </c>
+      <c r="I8" s="31">
+        <v>10072</v>
+      </c>
+      <c r="J8" s="31">
+        <v>27363</v>
+      </c>
+      <c r="K8" s="31">
+        <v>28870</v>
+      </c>
+      <c r="L8" s="31">
+        <v>5111</v>
+      </c>
+      <c r="M8" s="31">
+        <v>31157</v>
+      </c>
+      <c r="N8" s="31">
+        <v>27807</v>
+      </c>
+      <c r="O8" s="31">
+        <v>2788</v>
+      </c>
+      <c r="P8" s="31">
+        <v>28739</v>
+      </c>
+      <c r="Q8" s="31">
+        <v>26837</v>
+      </c>
+      <c r="R8" s="31">
+        <v>3514</v>
+      </c>
+      <c r="S8" s="31">
+        <v>28701</v>
+      </c>
+      <c r="T8" s="31">
+        <v>24979</v>
+      </c>
+      <c r="U8" s="31">
+        <v>6371</v>
+      </c>
+      <c r="V8" s="31">
+        <v>28791</v>
+      </c>
+      <c r="W8" s="31">
+        <v>29336</v>
+      </c>
+      <c r="X8" s="31">
+        <v>5104</v>
+      </c>
+      <c r="Y8" s="31">
+        <v>31364</v>
+      </c>
+      <c r="Z8" s="31">
+        <v>27326</v>
+      </c>
+      <c r="AA8" s="31">
+        <v>1445</v>
+      </c>
+      <c r="AB8" s="31">
+        <v>30180</v>
+      </c>
+      <c r="AC8" s="31">
+        <v>27268</v>
+      </c>
+      <c r="AD8" s="31">
+        <v>61213</v>
+      </c>
+      <c r="AE8" s="31">
+        <v>29538</v>
+      </c>
+      <c r="AF8" s="31">
+        <v>27402</v>
+      </c>
+      <c r="AG8" s="31">
+        <v>5669</v>
+      </c>
+      <c r="AH8" s="31">
+        <v>29020</v>
+      </c>
+      <c r="AI8" s="31">
+        <v>29495</v>
+      </c>
+      <c r="AJ8" s="31">
+        <v>60417</v>
+      </c>
+      <c r="AK8" s="31">
+        <v>30707</v>
+      </c>
+      <c r="AL8" s="31">
+        <v>30609</v>
+      </c>
+      <c r="AM8" s="31">
+        <v>381</v>
+      </c>
+      <c r="AN8" s="31">
+        <v>28526</v>
+      </c>
+      <c r="AO8" s="31">
+        <v>25457</v>
+      </c>
+      <c r="AP8" s="31">
+        <v>6383</v>
+      </c>
+      <c r="AQ8" s="31">
+        <v>31401</v>
+      </c>
+      <c r="AR8" s="31">
+        <v>23669</v>
+      </c>
+      <c r="AS8" s="31">
+        <v>4142</v>
+      </c>
+      <c r="AT8" s="31">
+        <v>28672</v>
+      </c>
+      <c r="AU8" s="31">
+        <v>26260</v>
+      </c>
+      <c r="AV8" s="31">
+        <v>4928</v>
       </c>
     </row>
     <row r="9" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>34279</v>
-      </c>
-      <c r="B9">
-        <v>32911</v>
-      </c>
-      <c r="C9">
-        <v>32786</v>
-      </c>
-      <c r="D9">
-        <v>34580</v>
-      </c>
-      <c r="E9">
-        <v>30011</v>
-      </c>
-      <c r="F9">
-        <v>35775</v>
-      </c>
-      <c r="G9">
-        <v>34724</v>
-      </c>
-      <c r="H9">
-        <v>32141</v>
-      </c>
-      <c r="I9">
-        <v>35764</v>
-      </c>
-      <c r="J9">
-        <v>35968</v>
-      </c>
-      <c r="K9">
-        <v>27469</v>
-      </c>
-      <c r="L9">
-        <v>28692</v>
-      </c>
-      <c r="M9">
-        <v>34079</v>
-      </c>
-      <c r="N9">
-        <v>34379</v>
-      </c>
-      <c r="O9">
-        <v>22055</v>
-      </c>
-      <c r="P9">
-        <v>34315</v>
-      </c>
-      <c r="Q9">
-        <v>43472</v>
-      </c>
-      <c r="R9">
-        <v>8536</v>
-      </c>
-      <c r="S9">
-        <v>49164</v>
-      </c>
-      <c r="T9">
-        <v>35577</v>
-      </c>
-      <c r="U9">
-        <v>44825</v>
-      </c>
-      <c r="V9">
-        <v>32262</v>
-      </c>
-      <c r="W9">
-        <v>33348</v>
-      </c>
-      <c r="X9">
-        <v>13010</v>
-      </c>
-      <c r="Y9">
-        <v>34658</v>
-      </c>
-      <c r="Z9">
-        <v>32072</v>
-      </c>
-      <c r="AA9">
-        <v>26981</v>
-      </c>
-      <c r="AB9">
-        <v>34029</v>
-      </c>
-      <c r="AC9">
-        <v>32645</v>
-      </c>
-      <c r="AD9">
-        <v>30494</v>
-      </c>
-      <c r="AE9">
-        <v>33399</v>
-      </c>
-      <c r="AF9">
-        <v>33408</v>
-      </c>
-      <c r="AG9">
-        <v>34375</v>
-      </c>
-      <c r="AH9">
-        <v>37385</v>
-      </c>
-      <c r="AI9">
-        <v>37525</v>
-      </c>
-      <c r="AJ9">
-        <v>22985</v>
-      </c>
-      <c r="AK9">
-        <v>33113</v>
-      </c>
-      <c r="AL9">
-        <v>34184</v>
-      </c>
-      <c r="AM9">
-        <v>24541</v>
-      </c>
-      <c r="AN9">
-        <v>36670</v>
-      </c>
-      <c r="AO9">
-        <v>33726</v>
-      </c>
-      <c r="AP9">
-        <v>21476</v>
-      </c>
-      <c r="AQ9">
-        <v>35190</v>
-      </c>
-      <c r="AR9">
-        <v>36871</v>
-      </c>
-      <c r="AS9">
-        <v>17433</v>
-      </c>
-      <c r="AT9">
-        <v>39482</v>
-      </c>
-      <c r="AU9">
-        <v>38424</v>
-      </c>
-      <c r="AV9">
-        <v>12472</v>
+      <c r="A9" s="31">
+        <v>29758</v>
+      </c>
+      <c r="B9" s="31">
+        <v>20870</v>
+      </c>
+      <c r="C9" s="31">
+        <v>3624</v>
+      </c>
+      <c r="D9" s="31">
+        <v>27170</v>
+      </c>
+      <c r="E9" s="31">
+        <v>29943</v>
+      </c>
+      <c r="F9" s="31">
+        <v>7463</v>
+      </c>
+      <c r="G9" s="31">
+        <v>28051</v>
+      </c>
+      <c r="H9" s="31">
+        <v>24141</v>
+      </c>
+      <c r="I9" s="31">
+        <v>10125</v>
+      </c>
+      <c r="J9" s="31">
+        <v>27365</v>
+      </c>
+      <c r="K9" s="31">
+        <v>28858</v>
+      </c>
+      <c r="L9" s="31">
+        <v>5199</v>
+      </c>
+      <c r="M9" s="31">
+        <v>31155</v>
+      </c>
+      <c r="N9" s="31">
+        <v>27800</v>
+      </c>
+      <c r="O9" s="31">
+        <v>2791</v>
+      </c>
+      <c r="P9" s="31">
+        <v>28741</v>
+      </c>
+      <c r="Q9" s="31">
+        <v>26838</v>
+      </c>
+      <c r="R9" s="31">
+        <v>3519</v>
+      </c>
+      <c r="S9" s="31">
+        <v>28704</v>
+      </c>
+      <c r="T9" s="31">
+        <v>24972</v>
+      </c>
+      <c r="U9" s="31">
+        <v>6408</v>
+      </c>
+      <c r="V9" s="31">
+        <v>28789</v>
+      </c>
+      <c r="W9" s="31">
+        <v>29338</v>
+      </c>
+      <c r="X9" s="31">
+        <v>5040</v>
+      </c>
+      <c r="Y9" s="31">
+        <v>31367</v>
+      </c>
+      <c r="Z9" s="31">
+        <v>27329</v>
+      </c>
+      <c r="AA9" s="31">
+        <v>1431</v>
+      </c>
+      <c r="AB9" s="31">
+        <v>30183</v>
+      </c>
+      <c r="AC9" s="31">
+        <v>27248</v>
+      </c>
+      <c r="AD9" s="31">
+        <v>61246</v>
+      </c>
+      <c r="AE9" s="31">
+        <v>29541</v>
+      </c>
+      <c r="AF9" s="31">
+        <v>27400</v>
+      </c>
+      <c r="AG9" s="31">
+        <v>5639</v>
+      </c>
+      <c r="AH9" s="31">
+        <v>29023</v>
+      </c>
+      <c r="AI9" s="31">
+        <v>29488</v>
+      </c>
+      <c r="AJ9" s="31">
+        <v>60414</v>
+      </c>
+      <c r="AK9" s="31">
+        <v>30706</v>
+      </c>
+      <c r="AL9" s="31">
+        <v>30615</v>
+      </c>
+      <c r="AM9" s="31">
+        <v>397</v>
+      </c>
+      <c r="AN9" s="31">
+        <v>28521</v>
+      </c>
+      <c r="AO9" s="31">
+        <v>25450</v>
+      </c>
+      <c r="AP9" s="31">
+        <v>6353</v>
+      </c>
+      <c r="AQ9" s="31">
+        <v>31398</v>
+      </c>
+      <c r="AR9" s="31">
+        <v>23657</v>
+      </c>
+      <c r="AS9" s="31">
+        <v>4133</v>
+      </c>
+      <c r="AT9" s="31">
+        <v>28681</v>
+      </c>
+      <c r="AU9" s="31">
+        <v>26273</v>
+      </c>
+      <c r="AV9" s="31">
+        <v>4932</v>
       </c>
     </row>
     <row r="10" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>34280</v>
-      </c>
-      <c r="B10">
-        <v>32915</v>
-      </c>
-      <c r="C10">
-        <v>32785</v>
-      </c>
-      <c r="D10">
-        <v>34582</v>
-      </c>
-      <c r="E10">
-        <v>30021</v>
-      </c>
-      <c r="F10">
-        <v>35772</v>
-      </c>
-      <c r="G10">
-        <v>34726</v>
-      </c>
-      <c r="H10">
-        <v>32134</v>
-      </c>
-      <c r="I10">
-        <v>35761</v>
-      </c>
-      <c r="J10">
-        <v>35970</v>
-      </c>
-      <c r="K10">
-        <v>27467</v>
-      </c>
-      <c r="L10">
-        <v>28698</v>
-      </c>
-      <c r="M10">
-        <v>34080</v>
-      </c>
-      <c r="N10">
-        <v>34384</v>
-      </c>
-      <c r="O10">
-        <v>22066</v>
-      </c>
-      <c r="P10">
-        <v>34318</v>
-      </c>
-      <c r="Q10">
-        <v>43465</v>
-      </c>
-      <c r="R10">
-        <v>8529</v>
-      </c>
-      <c r="S10">
-        <v>49184</v>
-      </c>
-      <c r="T10">
-        <v>35578</v>
-      </c>
-      <c r="U10">
-        <v>44801</v>
-      </c>
-      <c r="V10">
-        <v>32259</v>
-      </c>
-      <c r="W10">
-        <v>33349</v>
-      </c>
-      <c r="X10">
-        <v>12994</v>
-      </c>
-      <c r="Y10">
-        <v>34659</v>
-      </c>
-      <c r="Z10">
-        <v>32074</v>
-      </c>
-      <c r="AA10">
-        <v>26982</v>
-      </c>
-      <c r="AB10">
-        <v>34027</v>
-      </c>
-      <c r="AC10">
-        <v>32640</v>
-      </c>
-      <c r="AD10">
-        <v>30488</v>
-      </c>
-      <c r="AE10">
-        <v>33391</v>
-      </c>
-      <c r="AF10">
-        <v>33402</v>
-      </c>
-      <c r="AG10">
-        <v>34372</v>
-      </c>
-      <c r="AH10">
-        <v>37379</v>
-      </c>
-      <c r="AI10">
-        <v>37536</v>
-      </c>
-      <c r="AJ10">
-        <v>22988</v>
-      </c>
-      <c r="AK10">
-        <v>33111</v>
-      </c>
-      <c r="AL10">
-        <v>34177</v>
-      </c>
-      <c r="AM10">
-        <v>24550</v>
-      </c>
-      <c r="AN10">
-        <v>36670</v>
-      </c>
-      <c r="AO10">
-        <v>33717</v>
-      </c>
-      <c r="AP10">
-        <v>21472</v>
-      </c>
-      <c r="AQ10">
-        <v>35192</v>
-      </c>
-      <c r="AR10">
-        <v>36867</v>
-      </c>
-      <c r="AS10">
-        <v>17453</v>
-      </c>
-      <c r="AT10">
-        <v>39478</v>
-      </c>
-      <c r="AU10">
-        <v>38423</v>
-      </c>
-      <c r="AV10">
-        <v>12483</v>
+      <c r="A10" s="31">
+        <v>29756</v>
+      </c>
+      <c r="B10" s="31">
+        <v>20891</v>
+      </c>
+      <c r="C10" s="31">
+        <v>3653</v>
+      </c>
+      <c r="D10" s="31">
+        <v>27162</v>
+      </c>
+      <c r="E10" s="31">
+        <v>29949</v>
+      </c>
+      <c r="F10" s="31">
+        <v>7416</v>
+      </c>
+      <c r="G10" s="31">
+        <v>28053</v>
+      </c>
+      <c r="H10" s="31">
+        <v>24150</v>
+      </c>
+      <c r="I10" s="31">
+        <v>10073</v>
+      </c>
+      <c r="J10" s="31">
+        <v>27363</v>
+      </c>
+      <c r="K10" s="31">
+        <v>28873</v>
+      </c>
+      <c r="L10" s="31">
+        <v>5160</v>
+      </c>
+      <c r="M10" s="31">
+        <v>31156</v>
+      </c>
+      <c r="N10" s="31">
+        <v>27808</v>
+      </c>
+      <c r="O10" s="31">
+        <v>2796</v>
+      </c>
+      <c r="P10" s="31">
+        <v>28733</v>
+      </c>
+      <c r="Q10" s="31">
+        <v>26829</v>
+      </c>
+      <c r="R10" s="31">
+        <v>3529</v>
+      </c>
+      <c r="S10" s="31">
+        <v>28709</v>
+      </c>
+      <c r="T10" s="31">
+        <v>24981</v>
+      </c>
+      <c r="U10" s="31">
+        <v>6356</v>
+      </c>
+      <c r="V10" s="31">
+        <v>28789</v>
+      </c>
+      <c r="W10" s="31">
+        <v>29334</v>
+      </c>
+      <c r="X10" s="31">
+        <v>5096</v>
+      </c>
+      <c r="Y10" s="31">
+        <v>31369</v>
+      </c>
+      <c r="Z10" s="31">
+        <v>27325</v>
+      </c>
+      <c r="AA10" s="31">
+        <v>1498</v>
+      </c>
+      <c r="AB10" s="31">
+        <v>30186</v>
+      </c>
+      <c r="AC10" s="31">
+        <v>27259</v>
+      </c>
+      <c r="AD10" s="31">
+        <v>61264</v>
+      </c>
+      <c r="AE10" s="31">
+        <v>29540</v>
+      </c>
+      <c r="AF10" s="31">
+        <v>27410</v>
+      </c>
+      <c r="AG10" s="31">
+        <v>5644</v>
+      </c>
+      <c r="AH10" s="31">
+        <v>29018</v>
+      </c>
+      <c r="AI10" s="31">
+        <v>29504</v>
+      </c>
+      <c r="AJ10" s="31">
+        <v>60399</v>
+      </c>
+      <c r="AK10" s="31">
+        <v>30705</v>
+      </c>
+      <c r="AL10" s="31">
+        <v>30610</v>
+      </c>
+      <c r="AM10" s="31">
+        <v>433</v>
+      </c>
+      <c r="AN10" s="31">
+        <v>28523</v>
+      </c>
+      <c r="AO10" s="31">
+        <v>25458</v>
+      </c>
+      <c r="AP10" s="31">
+        <v>6358</v>
+      </c>
+      <c r="AQ10" s="31">
+        <v>31400</v>
+      </c>
+      <c r="AR10" s="31">
+        <v>23660</v>
+      </c>
+      <c r="AS10" s="31">
+        <v>4123</v>
+      </c>
+      <c r="AT10" s="31">
+        <v>28674</v>
+      </c>
+      <c r="AU10" s="31">
+        <v>26265</v>
+      </c>
+      <c r="AV10" s="31">
+        <v>4904</v>
       </c>
     </row>
     <row r="11" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>34277</v>
-      </c>
-      <c r="B11">
-        <v>32926</v>
-      </c>
-      <c r="C11">
-        <v>32782</v>
-      </c>
-      <c r="D11">
-        <v>34577</v>
-      </c>
-      <c r="E11">
-        <v>30013</v>
-      </c>
-      <c r="F11">
-        <v>35770</v>
-      </c>
-      <c r="G11">
-        <v>34725</v>
-      </c>
-      <c r="H11">
-        <v>32141</v>
-      </c>
-      <c r="I11">
-        <v>35760</v>
-      </c>
-      <c r="J11">
-        <v>35973</v>
-      </c>
-      <c r="K11">
-        <v>27472</v>
-      </c>
-      <c r="L11">
-        <v>28700</v>
-      </c>
-      <c r="M11">
-        <v>34081</v>
-      </c>
-      <c r="N11">
-        <v>34389</v>
-      </c>
-      <c r="O11">
-        <v>22078</v>
-      </c>
-      <c r="P11">
-        <v>34319</v>
-      </c>
-      <c r="Q11">
-        <v>43485</v>
-      </c>
-      <c r="R11">
-        <v>8551</v>
-      </c>
-      <c r="S11">
-        <v>49180</v>
-      </c>
-      <c r="T11">
-        <v>35578</v>
-      </c>
-      <c r="U11">
-        <v>44823</v>
-      </c>
-      <c r="V11">
-        <v>32260</v>
-      </c>
-      <c r="W11">
-        <v>33345</v>
-      </c>
-      <c r="X11">
-        <v>13022</v>
-      </c>
-      <c r="Y11">
-        <v>34659</v>
-      </c>
-      <c r="Z11">
-        <v>32068</v>
-      </c>
-      <c r="AA11">
-        <v>26966</v>
-      </c>
-      <c r="AB11">
-        <v>34031</v>
-      </c>
-      <c r="AC11">
-        <v>32638</v>
-      </c>
-      <c r="AD11">
-        <v>30489</v>
-      </c>
-      <c r="AE11">
-        <v>33397</v>
-      </c>
-      <c r="AF11">
-        <v>33402</v>
-      </c>
-      <c r="AG11">
-        <v>34379</v>
-      </c>
-      <c r="AH11">
-        <v>37379</v>
-      </c>
-      <c r="AI11">
-        <v>37526</v>
-      </c>
-      <c r="AJ11">
-        <v>22996</v>
-      </c>
-      <c r="AK11">
-        <v>33117</v>
-      </c>
-      <c r="AL11">
-        <v>34183</v>
-      </c>
-      <c r="AM11">
-        <v>24544</v>
-      </c>
-      <c r="AN11">
-        <v>36666</v>
-      </c>
-      <c r="AO11">
-        <v>33723</v>
-      </c>
-      <c r="AP11">
-        <v>21477</v>
-      </c>
-      <c r="AQ11">
-        <v>35186</v>
-      </c>
-      <c r="AR11">
-        <v>36869</v>
-      </c>
-      <c r="AS11">
-        <v>17451</v>
-      </c>
-      <c r="AT11">
-        <v>39472</v>
-      </c>
-      <c r="AU11">
-        <v>38415</v>
-      </c>
-      <c r="AV11">
-        <v>12486</v>
+      <c r="A11" s="31">
+        <v>29757</v>
+      </c>
+      <c r="B11" s="31">
+        <v>20893</v>
+      </c>
+      <c r="C11" s="31">
+        <v>3605</v>
+      </c>
+      <c r="D11" s="31">
+        <v>27169</v>
+      </c>
+      <c r="E11" s="31">
+        <v>29947</v>
+      </c>
+      <c r="F11" s="31">
+        <v>7424</v>
+      </c>
+      <c r="G11" s="31">
+        <v>28061</v>
+      </c>
+      <c r="H11" s="31">
+        <v>24165</v>
+      </c>
+      <c r="I11" s="31">
+        <v>10108</v>
+      </c>
+      <c r="J11" s="31">
+        <v>27357</v>
+      </c>
+      <c r="K11" s="31">
+        <v>28879</v>
+      </c>
+      <c r="L11" s="31">
+        <v>5135</v>
+      </c>
+      <c r="M11" s="31">
+        <v>31157</v>
+      </c>
+      <c r="N11" s="31">
+        <v>27806</v>
+      </c>
+      <c r="O11" s="31">
+        <v>2802</v>
+      </c>
+      <c r="P11" s="31">
+        <v>28734</v>
+      </c>
+      <c r="Q11" s="31">
+        <v>26827</v>
+      </c>
+      <c r="R11" s="31">
+        <v>3552</v>
+      </c>
+      <c r="S11" s="31">
+        <v>28706</v>
+      </c>
+      <c r="T11" s="31">
+        <v>24981</v>
+      </c>
+      <c r="U11" s="31">
+        <v>6361</v>
+      </c>
+      <c r="V11" s="31">
+        <v>28791</v>
+      </c>
+      <c r="W11" s="31">
+        <v>29346</v>
+      </c>
+      <c r="X11" s="31">
+        <v>5035</v>
+      </c>
+      <c r="Y11" s="31">
+        <v>31365</v>
+      </c>
+      <c r="Z11" s="31">
+        <v>27323</v>
+      </c>
+      <c r="AA11" s="31">
+        <v>1464</v>
+      </c>
+      <c r="AB11" s="31">
+        <v>30186</v>
+      </c>
+      <c r="AC11" s="31">
+        <v>27260</v>
+      </c>
+      <c r="AD11" s="31">
+        <v>61232</v>
+      </c>
+      <c r="AE11" s="31">
+        <v>29538</v>
+      </c>
+      <c r="AF11" s="31">
+        <v>27405</v>
+      </c>
+      <c r="AG11" s="31">
+        <v>5679</v>
+      </c>
+      <c r="AH11" s="31">
+        <v>29012</v>
+      </c>
+      <c r="AI11" s="31">
+        <v>29498</v>
+      </c>
+      <c r="AJ11" s="31">
+        <v>60391</v>
+      </c>
+      <c r="AK11" s="31">
+        <v>30700</v>
+      </c>
+      <c r="AL11" s="31">
+        <v>30608</v>
+      </c>
+      <c r="AM11" s="31">
+        <v>394</v>
+      </c>
+      <c r="AN11" s="31">
+        <v>28520</v>
+      </c>
+      <c r="AO11" s="31">
+        <v>25451</v>
+      </c>
+      <c r="AP11" s="31">
+        <v>6364</v>
+      </c>
+      <c r="AQ11" s="31">
+        <v>31397</v>
+      </c>
+      <c r="AR11" s="31">
+        <v>23674</v>
+      </c>
+      <c r="AS11" s="31">
+        <v>4104</v>
+      </c>
+      <c r="AT11" s="31">
+        <v>28676</v>
+      </c>
+      <c r="AU11" s="31">
+        <v>26265</v>
+      </c>
+      <c r="AV11" s="31">
+        <v>4894</v>
       </c>
     </row>
     <row r="12" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>34280</v>
-      </c>
-      <c r="B12">
-        <v>32923</v>
-      </c>
-      <c r="C12">
-        <v>32787</v>
-      </c>
-      <c r="D12">
-        <v>34579</v>
-      </c>
-      <c r="E12">
-        <v>30013</v>
-      </c>
-      <c r="F12">
-        <v>35781</v>
-      </c>
-      <c r="G12">
-        <v>34731</v>
-      </c>
-      <c r="H12">
-        <v>32139</v>
-      </c>
-      <c r="I12">
-        <v>35760</v>
-      </c>
-      <c r="J12">
-        <v>35961</v>
-      </c>
-      <c r="K12">
-        <v>27467</v>
-      </c>
-      <c r="L12">
-        <v>28689</v>
-      </c>
-      <c r="M12">
-        <v>34079</v>
-      </c>
-      <c r="N12">
-        <v>34385</v>
-      </c>
-      <c r="O12">
-        <v>22055</v>
-      </c>
-      <c r="P12">
-        <v>34319</v>
-      </c>
-      <c r="Q12">
-        <v>43474</v>
-      </c>
-      <c r="R12">
-        <v>8528</v>
-      </c>
-      <c r="S12">
-        <v>49137</v>
-      </c>
-      <c r="T12">
-        <v>35568</v>
-      </c>
-      <c r="U12">
-        <v>44828</v>
-      </c>
-      <c r="V12">
-        <v>32261</v>
-      </c>
-      <c r="W12">
-        <v>33335</v>
-      </c>
-      <c r="X12">
-        <v>13003</v>
-      </c>
-      <c r="Y12">
-        <v>34659</v>
-      </c>
-      <c r="Z12">
-        <v>32068</v>
-      </c>
-      <c r="AA12">
-        <v>26968</v>
-      </c>
-      <c r="AB12">
-        <v>34030</v>
-      </c>
-      <c r="AC12">
-        <v>32637</v>
-      </c>
-      <c r="AD12">
-        <v>30498</v>
-      </c>
-      <c r="AE12">
-        <v>33391</v>
-      </c>
-      <c r="AF12">
-        <v>33413</v>
-      </c>
-      <c r="AG12">
-        <v>34373</v>
-      </c>
-      <c r="AH12">
-        <v>37385</v>
-      </c>
-      <c r="AI12">
-        <v>37539</v>
-      </c>
-      <c r="AJ12">
-        <v>22989</v>
-      </c>
-      <c r="AK12">
-        <v>33112</v>
-      </c>
-      <c r="AL12">
-        <v>34176</v>
-      </c>
-      <c r="AM12">
-        <v>24541</v>
-      </c>
-      <c r="AN12">
-        <v>36667</v>
-      </c>
-      <c r="AO12">
-        <v>33727</v>
-      </c>
-      <c r="AP12">
-        <v>21479</v>
-      </c>
-      <c r="AQ12">
-        <v>35187</v>
-      </c>
-      <c r="AR12">
-        <v>36869</v>
-      </c>
-      <c r="AS12">
-        <v>17454</v>
-      </c>
-      <c r="AT12">
-        <v>39477</v>
-      </c>
-      <c r="AU12">
-        <v>38417</v>
-      </c>
-      <c r="AV12">
-        <v>12502</v>
+      <c r="A12" s="31">
+        <v>29756</v>
+      </c>
+      <c r="B12" s="31">
+        <v>20875</v>
+      </c>
+      <c r="C12" s="31">
+        <v>3617</v>
+      </c>
+      <c r="D12" s="31">
+        <v>27169</v>
+      </c>
+      <c r="E12" s="31">
+        <v>29941</v>
+      </c>
+      <c r="F12" s="31">
+        <v>7486</v>
+      </c>
+      <c r="G12" s="31">
+        <v>28060</v>
+      </c>
+      <c r="H12" s="31">
+        <v>24137</v>
+      </c>
+      <c r="I12" s="31">
+        <v>10124</v>
+      </c>
+      <c r="J12" s="31">
+        <v>27360</v>
+      </c>
+      <c r="K12" s="31">
+        <v>28877</v>
+      </c>
+      <c r="L12" s="31">
+        <v>5099</v>
+      </c>
+      <c r="M12" s="31">
+        <v>31150</v>
+      </c>
+      <c r="N12" s="31">
+        <v>27787</v>
+      </c>
+      <c r="O12" s="31">
+        <v>2816</v>
+      </c>
+      <c r="P12" s="31">
+        <v>28730</v>
+      </c>
+      <c r="Q12" s="31">
+        <v>26822</v>
+      </c>
+      <c r="R12" s="31">
+        <v>3551</v>
+      </c>
+      <c r="S12" s="31">
+        <v>28712</v>
+      </c>
+      <c r="T12" s="31">
+        <v>24992</v>
+      </c>
+      <c r="U12" s="31">
+        <v>6397</v>
+      </c>
+      <c r="V12" s="31">
+        <v>28784</v>
+      </c>
+      <c r="W12" s="31">
+        <v>29337</v>
+      </c>
+      <c r="X12" s="31">
+        <v>5097</v>
+      </c>
+      <c r="Y12" s="31">
+        <v>31367</v>
+      </c>
+      <c r="Z12" s="31">
+        <v>27325</v>
+      </c>
+      <c r="AA12" s="31">
+        <v>1431</v>
+      </c>
+      <c r="AB12" s="31">
+        <v>30185</v>
+      </c>
+      <c r="AC12" s="31">
+        <v>27259</v>
+      </c>
+      <c r="AD12" s="31">
+        <v>61228</v>
+      </c>
+      <c r="AE12" s="31">
+        <v>29536</v>
+      </c>
+      <c r="AF12" s="31">
+        <v>27404</v>
+      </c>
+      <c r="AG12" s="31">
+        <v>5687</v>
+      </c>
+      <c r="AH12" s="31">
+        <v>29021</v>
+      </c>
+      <c r="AI12" s="31">
+        <v>29493</v>
+      </c>
+      <c r="AJ12" s="31">
+        <v>60414</v>
+      </c>
+      <c r="AK12" s="31">
+        <v>30704</v>
+      </c>
+      <c r="AL12" s="31">
+        <v>30610</v>
+      </c>
+      <c r="AM12" s="31">
+        <v>445</v>
+      </c>
+      <c r="AN12" s="31">
+        <v>28524</v>
+      </c>
+      <c r="AO12" s="31">
+        <v>25449</v>
+      </c>
+      <c r="AP12" s="31">
+        <v>6402</v>
+      </c>
+      <c r="AQ12" s="31">
+        <v>31395</v>
+      </c>
+      <c r="AR12" s="31">
+        <v>23661</v>
+      </c>
+      <c r="AS12" s="31">
+        <v>4134</v>
+      </c>
+      <c r="AT12" s="31">
+        <v>28680</v>
+      </c>
+      <c r="AU12" s="31">
+        <v>26279</v>
+      </c>
+      <c r="AV12" s="31">
+        <v>4912</v>
       </c>
     </row>
     <row r="13" spans="1:96" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3168,195 +3169,195 @@
     <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <f t="shared" ref="A17:AV17" si="0">AVERAGE(A3:A11)</f>
-        <v>34281.777777777781</v>
+        <v>29759.666666666668</v>
       </c>
       <c r="B17" s="9">
         <f t="shared" si="0"/>
-        <v>32918.333333333336</v>
+        <v>20891.888888888891</v>
       </c>
       <c r="C17" s="9">
         <f t="shared" si="0"/>
-        <v>32784</v>
+        <v>3597.6666666666665</v>
       </c>
       <c r="D17" s="9">
         <f t="shared" si="0"/>
-        <v>34577.555555555555</v>
+        <v>27168.333333333332</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="0"/>
-        <v>30010.777777777777</v>
+        <v>29948.333333333332</v>
       </c>
       <c r="F17" s="9">
         <f t="shared" si="0"/>
-        <v>35775.222222222219</v>
+        <v>7434.1111111111113</v>
       </c>
       <c r="G17" s="9">
         <f t="shared" si="0"/>
-        <v>34726.777777777781</v>
+        <v>28054.444444444445</v>
       </c>
       <c r="H17" s="9">
         <f t="shared" si="0"/>
-        <v>32137.555555555555</v>
+        <v>24147</v>
       </c>
       <c r="I17" s="9">
         <f t="shared" si="0"/>
-        <v>35761.222222222219</v>
+        <v>10093.222222222223</v>
       </c>
       <c r="J17" s="9">
         <f t="shared" si="0"/>
-        <v>35969.555555555555</v>
+        <v>27359.666666666668</v>
       </c>
       <c r="K17" s="9">
         <f t="shared" si="0"/>
-        <v>27470.555555555555</v>
+        <v>28873.777777777777</v>
       </c>
       <c r="L17" s="9">
         <f t="shared" si="0"/>
-        <v>28696</v>
+        <v>5158.666666666667</v>
       </c>
       <c r="M17" s="9">
         <f t="shared" si="0"/>
-        <v>34078</v>
+        <v>31153.555555555555</v>
       </c>
       <c r="N17" s="9">
         <f t="shared" si="0"/>
-        <v>34385.222222222219</v>
+        <v>27802.333333333332</v>
       </c>
       <c r="O17" s="9">
         <f t="shared" si="0"/>
-        <v>22069.777777777777</v>
+        <v>2809.4444444444443</v>
       </c>
       <c r="P17" s="9">
         <f t="shared" si="0"/>
-        <v>34318</v>
+        <v>28735.666666666668</v>
       </c>
       <c r="Q17" s="9">
         <f t="shared" si="0"/>
-        <v>43475</v>
+        <v>26829.666666666668</v>
       </c>
       <c r="R17" s="9">
         <f t="shared" si="0"/>
-        <v>8528</v>
+        <v>3532.6666666666665</v>
       </c>
       <c r="S17" s="9">
         <f t="shared" si="0"/>
-        <v>49173</v>
+        <v>28707.777777777777</v>
       </c>
       <c r="T17" s="9">
         <f t="shared" si="0"/>
-        <v>35577.666666666664</v>
+        <v>24981.777777777777</v>
       </c>
       <c r="U17" s="9">
         <f t="shared" si="0"/>
-        <v>44815</v>
+        <v>6370.4444444444443</v>
       </c>
       <c r="V17" s="9">
         <f t="shared" si="0"/>
-        <v>32261.333333333332</v>
+        <v>28786.888888888891</v>
       </c>
       <c r="W17" s="9">
         <f t="shared" si="0"/>
-        <v>33343.444444444445</v>
+        <v>29335.777777777777</v>
       </c>
       <c r="X17" s="9">
         <f t="shared" si="0"/>
-        <v>13015.777777777777</v>
+        <v>5091.4444444444443</v>
       </c>
       <c r="Y17" s="9">
         <f t="shared" si="0"/>
-        <v>34661</v>
+        <v>31367.333333333332</v>
       </c>
       <c r="Z17" s="9">
         <f t="shared" si="0"/>
-        <v>32072.111111111109</v>
+        <v>27325.222222222223</v>
       </c>
       <c r="AA17" s="9">
         <f t="shared" si="0"/>
-        <v>26974.333333333332</v>
+        <v>1449.5555555555557</v>
       </c>
       <c r="AB17" s="9">
         <f t="shared" si="0"/>
-        <v>34030.111111111109</v>
+        <v>30183.777777777777</v>
       </c>
       <c r="AC17" s="9">
         <f t="shared" si="0"/>
-        <v>32641.888888888891</v>
+        <v>27259.111111111109</v>
       </c>
       <c r="AD17" s="9">
         <f t="shared" si="0"/>
-        <v>30491.111111111109</v>
+        <v>61235.333333333336</v>
       </c>
       <c r="AE17" s="9">
         <f t="shared" si="0"/>
-        <v>33395.666666666664</v>
+        <v>29541.777777777777</v>
       </c>
       <c r="AF17" s="9">
         <f t="shared" si="0"/>
-        <v>33405.333333333336</v>
+        <v>27407.555555555555</v>
       </c>
       <c r="AG17" s="9">
         <f t="shared" si="0"/>
-        <v>34374.444444444445</v>
+        <v>5655.4444444444443</v>
       </c>
       <c r="AH17" s="9">
         <f t="shared" si="0"/>
-        <v>37386.777777777781</v>
+        <v>29018.333333333332</v>
       </c>
       <c r="AI17" s="9">
         <f t="shared" si="0"/>
-        <v>37536.444444444445</v>
+        <v>29496.888888888891</v>
       </c>
       <c r="AJ17" s="9">
         <f t="shared" si="0"/>
-        <v>22977</v>
+        <v>60397.111111111109</v>
       </c>
       <c r="AK17" s="9">
         <f t="shared" si="0"/>
-        <v>33115.111111111109</v>
+        <v>30705.333333333332</v>
       </c>
       <c r="AL17" s="9">
         <f t="shared" si="0"/>
-        <v>34180.333333333336</v>
+        <v>30612.111111111109</v>
       </c>
       <c r="AM17" s="9">
         <f t="shared" si="0"/>
-        <v>24547.444444444445</v>
+        <v>414.22222222222223</v>
       </c>
       <c r="AN17" s="9">
         <f t="shared" si="0"/>
-        <v>36669.111111111109</v>
+        <v>28522.444444444445</v>
       </c>
       <c r="AO17" s="9">
         <f t="shared" si="0"/>
-        <v>33721.111111111109</v>
+        <v>25450.777777777777</v>
       </c>
       <c r="AP17" s="9">
         <f t="shared" si="0"/>
-        <v>21480.444444444445</v>
+        <v>6382.8888888888887</v>
       </c>
       <c r="AQ17" s="9">
         <f t="shared" si="0"/>
-        <v>35189.666666666664</v>
+        <v>31397.777777777777</v>
       </c>
       <c r="AR17" s="9">
         <f t="shared" si="0"/>
-        <v>36869.777777777781</v>
+        <v>23664.666666666668</v>
       </c>
       <c r="AS17" s="9">
         <f t="shared" si="0"/>
-        <v>17448.444444444445</v>
+        <v>4119.7777777777774</v>
       </c>
       <c r="AT17" s="9">
         <f t="shared" si="0"/>
-        <v>39475.666666666664</v>
+        <v>28673.666666666668</v>
       </c>
       <c r="AU17" s="9">
         <f t="shared" si="0"/>
-        <v>38420.888888888891</v>
+        <v>26264</v>
       </c>
       <c r="AV17" s="9">
         <f t="shared" si="0"/>
-        <v>12483.666666666666</v>
+        <v>4906.2222222222226</v>
       </c>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.25">
@@ -3498,195 +3499,195 @@
     <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <f>A17+xoffset</f>
-        <v>67049.777777777781</v>
+        <v>62527.666666666672</v>
       </c>
       <c r="B27" s="9">
         <f>B17+yoffset</f>
-        <v>65686.333333333343</v>
+        <v>53659.888888888891</v>
       </c>
       <c r="C27" s="9">
         <f>C17+zoffset</f>
-        <v>53264</v>
+        <v>24077.666666666668</v>
       </c>
       <c r="D27" s="9">
         <f>D17+xoffset</f>
-        <v>67345.555555555562</v>
+        <v>59936.333333333328</v>
       </c>
       <c r="E27" s="9">
         <f>E17+yoffset</f>
-        <v>62778.777777777781</v>
+        <v>62716.333333333328</v>
       </c>
       <c r="F27" s="9">
         <f>F17+zoffset</f>
-        <v>56255.222222222219</v>
+        <v>27914.111111111109</v>
       </c>
       <c r="G27" s="9">
         <f>G17+xoffset</f>
-        <v>67494.777777777781</v>
+        <v>60822.444444444445</v>
       </c>
       <c r="H27" s="9">
         <f>H17+yoffset</f>
-        <v>64905.555555555555</v>
+        <v>56915</v>
       </c>
       <c r="I27" s="9">
         <f>I17+zoffset</f>
-        <v>56241.222222222219</v>
+        <v>30573.222222222223</v>
       </c>
       <c r="J27" s="9">
         <f>J17+xoffset</f>
-        <v>68737.555555555562</v>
+        <v>60127.666666666672</v>
       </c>
       <c r="K27" s="9">
         <f>K17+yoffset</f>
-        <v>60238.555555555555</v>
+        <v>61641.777777777781</v>
       </c>
       <c r="L27" s="9">
         <f>L17+zoffset</f>
-        <v>49176</v>
+        <v>25638.666666666668</v>
       </c>
       <c r="M27" s="9">
         <f>M17+xoffset</f>
-        <v>66846</v>
+        <v>63921.555555555555</v>
       </c>
       <c r="N27" s="9">
         <f>N17+yoffset</f>
-        <v>67153.222222222219</v>
+        <v>60570.333333333328</v>
       </c>
       <c r="O27" s="9">
         <f>O17+zoffset</f>
-        <v>42549.777777777781</v>
+        <v>23289.444444444445</v>
       </c>
       <c r="P27" s="9">
         <f>P17+xoffset</f>
-        <v>67086</v>
+        <v>61503.666666666672</v>
       </c>
       <c r="Q27" s="9">
         <f>Q17+yoffset</f>
-        <v>76243</v>
+        <v>59597.666666666672</v>
       </c>
       <c r="R27" s="9">
         <f>R17+zoffset</f>
-        <v>29008</v>
+        <v>24012.666666666668</v>
       </c>
       <c r="S27" s="9">
         <f>S17+xoffset</f>
-        <v>81941</v>
+        <v>61475.777777777781</v>
       </c>
       <c r="T27" s="9">
         <f>T17+yoffset</f>
-        <v>68345.666666666657</v>
+        <v>57749.777777777781</v>
       </c>
       <c r="U27" s="9">
         <f>U17+zoffset</f>
-        <v>65295</v>
+        <v>26850.444444444445</v>
       </c>
       <c r="V27" s="9">
         <f>V17+xoffset</f>
-        <v>65029.333333333328</v>
+        <v>61554.888888888891</v>
       </c>
       <c r="W27" s="9">
         <f>W17+yoffset</f>
-        <v>66111.444444444438</v>
+        <v>62103.777777777781</v>
       </c>
       <c r="X27" s="9">
         <f>X17+zoffset</f>
-        <v>33495.777777777781</v>
+        <v>25571.444444444445</v>
       </c>
       <c r="Y27" s="9">
         <f>Y17+xoffset</f>
-        <v>67429</v>
+        <v>64135.333333333328</v>
       </c>
       <c r="Z27" s="9">
         <f>Z17+yoffset</f>
-        <v>64840.111111111109</v>
+        <v>60093.222222222219</v>
       </c>
       <c r="AA27" s="9">
         <f>AA17+zoffset</f>
-        <v>47454.333333333328</v>
+        <v>21929.555555555555</v>
       </c>
       <c r="AB27" s="9">
         <f>AB17+xoffset</f>
-        <v>66798.111111111109</v>
+        <v>62951.777777777781</v>
       </c>
       <c r="AC27" s="9">
         <f>AC17+yoffset</f>
-        <v>65409.888888888891</v>
+        <v>60027.111111111109</v>
       </c>
       <c r="AD27" s="9">
         <f>AD17+zoffset</f>
-        <v>50971.111111111109</v>
+        <v>81715.333333333343</v>
       </c>
       <c r="AE27" s="9">
         <f>AE17+xoffset</f>
-        <v>66163.666666666657</v>
+        <v>62309.777777777781</v>
       </c>
       <c r="AF27" s="9">
         <f>AF17+yoffset</f>
-        <v>66173.333333333343</v>
+        <v>60175.555555555555</v>
       </c>
       <c r="AG27" s="9">
         <f>AG17+zoffset</f>
-        <v>54854.444444444445</v>
+        <v>26135.444444444445</v>
       </c>
       <c r="AH27" s="9">
         <f>AH17+xoffset</f>
-        <v>70154.777777777781</v>
+        <v>61786.333333333328</v>
       </c>
       <c r="AI27" s="9">
         <f>AI17+yoffset</f>
-        <v>70304.444444444438</v>
+        <v>62264.888888888891</v>
       </c>
       <c r="AJ27" s="9">
         <f>AJ17+zoffset</f>
-        <v>43457</v>
+        <v>80877.111111111109</v>
       </c>
       <c r="AK27" s="9">
         <f>AK17+xoffset</f>
-        <v>65883.111111111109</v>
+        <v>63473.333333333328</v>
       </c>
       <c r="AL27" s="9">
         <f>AL17+yoffset</f>
-        <v>66948.333333333343</v>
+        <v>63380.111111111109</v>
       </c>
       <c r="AM27" s="9">
         <f>AM17+zoffset</f>
-        <v>45027.444444444445</v>
+        <v>20894.222222222223</v>
       </c>
       <c r="AN27" s="9">
         <f>AN17+xoffset</f>
-        <v>69437.111111111109</v>
+        <v>61290.444444444445</v>
       </c>
       <c r="AO27" s="9">
         <f>AO17+yoffset</f>
-        <v>66489.111111111109</v>
+        <v>58218.777777777781</v>
       </c>
       <c r="AP27" s="9">
         <f>AP17+zoffset</f>
-        <v>41960.444444444445</v>
+        <v>26862.888888888891</v>
       </c>
       <c r="AQ27" s="9">
         <f>AQ17+xoffset</f>
-        <v>67957.666666666657</v>
+        <v>64165.777777777781</v>
       </c>
       <c r="AR27" s="9">
         <f>AR17+yoffset</f>
-        <v>69637.777777777781</v>
+        <v>56432.666666666672</v>
       </c>
       <c r="AS27" s="9">
         <f>AS17+zoffset</f>
-        <v>37928.444444444445</v>
+        <v>24599.777777777777</v>
       </c>
       <c r="AT27" s="9">
         <f>AT17+xoffset</f>
-        <v>72243.666666666657</v>
+        <v>61441.666666666672</v>
       </c>
       <c r="AU27" s="9">
         <f>AU17+yoffset</f>
-        <v>71188.888888888891</v>
+        <v>59032</v>
       </c>
       <c r="AV27" s="9">
         <f>AV17+zoffset</f>
-        <v>32963.666666666664</v>
+        <v>25386.222222222223</v>
       </c>
     </row>
     <row r="31" spans="1:48" x14ac:dyDescent="0.25">
@@ -3890,389 +3891,389 @@
     <row r="33" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <f>A27-targetx</f>
-        <v>34281.777777777781</v>
+        <v>29759.666666666672</v>
       </c>
       <c r="B33" s="17">
         <f>B27-targety</f>
-        <v>32918.333333333343</v>
+        <v>20891.888888888891</v>
       </c>
       <c r="C33" s="17">
         <f>C27-targetz</f>
-        <v>40264</v>
+        <v>11077.666666666668</v>
       </c>
       <c r="D33" s="17">
         <f>D27-targetx</f>
-        <v>34577.555555555562</v>
+        <v>27168.333333333328</v>
       </c>
       <c r="E33" s="17">
         <f>E27-targety</f>
-        <v>30010.777777777781</v>
+        <v>29948.333333333328</v>
       </c>
       <c r="F33" s="17">
         <f>F27-targetz</f>
-        <v>43255.222222222219</v>
+        <v>14914.111111111109</v>
       </c>
       <c r="G33" s="17">
         <f>G27-targetx</f>
-        <v>34726.777777777781</v>
+        <v>28054.444444444445</v>
       </c>
       <c r="H33" s="17">
         <f>H27-targety</f>
-        <v>32137.555555555555</v>
+        <v>24147</v>
       </c>
       <c r="I33" s="17">
         <f>I27-targetz</f>
-        <v>43241.222222222219</v>
+        <v>17573.222222222223</v>
       </c>
       <c r="J33" s="17">
         <f>J27-targetx</f>
-        <v>35969.555555555562</v>
+        <v>27359.666666666672</v>
       </c>
       <c r="K33" s="17">
         <f>K27-targety</f>
-        <v>27470.555555555555</v>
+        <v>28873.777777777781</v>
       </c>
       <c r="L33" s="17">
         <f>L27-targetz</f>
-        <v>36176</v>
+        <v>12638.666666666668</v>
       </c>
       <c r="M33" s="28">
         <f>M27-targetx</f>
-        <v>34078</v>
+        <v>31153.555555555555</v>
       </c>
       <c r="N33" s="28">
         <f>N27-targety</f>
-        <v>34385.222222222219</v>
+        <v>27802.333333333328</v>
       </c>
       <c r="O33" s="28">
         <f>O27-targetz</f>
-        <v>29549.777777777781</v>
+        <v>10289.444444444445</v>
       </c>
       <c r="P33" s="28">
         <f>P27-targetx</f>
-        <v>34318</v>
+        <v>28735.666666666672</v>
       </c>
       <c r="Q33" s="28">
         <f>Q27-targety</f>
-        <v>43475</v>
+        <v>26829.666666666672</v>
       </c>
       <c r="R33" s="28">
         <f>R27-targetz</f>
-        <v>16008</v>
+        <v>11012.666666666668</v>
       </c>
       <c r="S33" s="28">
         <f>S27-targetx</f>
-        <v>49173</v>
+        <v>28707.777777777781</v>
       </c>
       <c r="T33" s="28">
         <f>T27-targety</f>
-        <v>35577.666666666657</v>
+        <v>24981.777777777781</v>
       </c>
       <c r="U33" s="28">
         <f>U27-targetz</f>
-        <v>52295</v>
+        <v>13850.444444444445</v>
       </c>
       <c r="V33" s="28">
         <f>V27-targetx</f>
-        <v>32261.333333333328</v>
+        <v>28786.888888888891</v>
       </c>
       <c r="W33" s="28">
         <f>W27-targety</f>
-        <v>33343.444444444438</v>
+        <v>29335.777777777781</v>
       </c>
       <c r="X33" s="28">
         <f>X27-targetz</f>
-        <v>20495.777777777781</v>
+        <v>12571.444444444445</v>
       </c>
       <c r="Y33" s="29">
         <f>Y27-targetx</f>
-        <v>34661</v>
+        <v>31367.333333333328</v>
       </c>
       <c r="Z33" s="29">
         <f>Z27-targety</f>
-        <v>32072.111111111109</v>
+        <v>27325.222222222219</v>
       </c>
       <c r="AA33" s="29">
         <f>AA27-targetz</f>
-        <v>34454.333333333328</v>
+        <v>8929.5555555555547</v>
       </c>
       <c r="AB33" s="29">
         <f>AB27-targetx</f>
-        <v>34030.111111111109</v>
+        <v>30183.777777777781</v>
       </c>
       <c r="AC33" s="29">
         <f>AC27-targety</f>
-        <v>32641.888888888891</v>
+        <v>27259.111111111109</v>
       </c>
       <c r="AD33" s="29">
         <f>AD27-targetz</f>
-        <v>37971.111111111109</v>
+        <v>68715.333333333343</v>
       </c>
       <c r="AE33" s="29">
         <f>AE27-targetx</f>
-        <v>33395.666666666657</v>
+        <v>29541.777777777781</v>
       </c>
       <c r="AF33" s="29">
         <f>AF27-targety</f>
-        <v>33405.333333333343</v>
+        <v>27407.555555555555</v>
       </c>
       <c r="AG33" s="29">
         <f>AG27-targetz</f>
-        <v>41854.444444444445</v>
+        <v>13135.444444444445</v>
       </c>
       <c r="AH33" s="29">
         <f>AH27-targetx</f>
-        <v>37386.777777777781</v>
+        <v>29018.333333333328</v>
       </c>
       <c r="AI33" s="29">
         <f>AI27-targety</f>
-        <v>37536.444444444438</v>
+        <v>29496.888888888891</v>
       </c>
       <c r="AJ33" s="29">
         <f>AJ27-targetz</f>
-        <v>30457</v>
+        <v>67877.111111111109</v>
       </c>
       <c r="AK33" s="18">
         <f>AK27-targetx</f>
-        <v>33115.111111111109</v>
+        <v>30705.333333333328</v>
       </c>
       <c r="AL33" s="18">
         <f>AL27-targety</f>
-        <v>34180.333333333343</v>
+        <v>30612.111111111109</v>
       </c>
       <c r="AM33" s="18">
         <f>AM27-targetz</f>
-        <v>32027.444444444445</v>
+        <v>7894.2222222222226</v>
       </c>
       <c r="AN33" s="18">
         <f>AN27-targetx</f>
-        <v>36669.111111111109</v>
+        <v>28522.444444444445</v>
       </c>
       <c r="AO33" s="18">
         <f>AO27-targety</f>
-        <v>33721.111111111109</v>
+        <v>25450.777777777781</v>
       </c>
       <c r="AP33" s="18">
         <f>AP27-targetz</f>
-        <v>28960.444444444445</v>
+        <v>13862.888888888891</v>
       </c>
       <c r="AQ33" s="18">
         <f>AQ27-targetx</f>
-        <v>35189.666666666657</v>
+        <v>31397.777777777781</v>
       </c>
       <c r="AR33" s="18">
         <f>AR27-targety</f>
-        <v>36869.777777777781</v>
+        <v>23664.666666666672</v>
       </c>
       <c r="AS33" s="18">
         <f>AS27-targetz</f>
-        <v>24928.444444444445</v>
+        <v>11599.777777777777</v>
       </c>
       <c r="AT33" s="18">
         <f>AT27-targetx</f>
-        <v>39475.666666666657</v>
+        <v>28673.666666666672</v>
       </c>
       <c r="AU33" s="18">
         <f>AU27-targety</f>
-        <v>38420.888888888891</v>
+        <v>26264</v>
       </c>
       <c r="AV33" s="18">
         <f>AV27-targetz</f>
-        <v>19963.666666666664</v>
+        <v>12386.222222222223</v>
       </c>
     </row>
     <row r="34" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="str">
         <f>DEC2HEX(A33)</f>
-        <v>85E9</v>
+        <v>743F</v>
       </c>
       <c r="B34" s="17" t="str">
         <f t="shared" ref="B34:L34" si="3">DEC2HEX(B33)</f>
-        <v>8096</v>
+        <v>519B</v>
       </c>
       <c r="C34" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>9D48</v>
+        <v>2B45</v>
       </c>
       <c r="D34" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>8711</v>
+        <v>6A20</v>
       </c>
       <c r="E34" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>753A</v>
+        <v>74FC</v>
       </c>
       <c r="F34" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>A8F7</v>
+        <v>3A42</v>
       </c>
       <c r="G34" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>87A6</v>
+        <v>6D96</v>
       </c>
       <c r="H34" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>7D89</v>
+        <v>5E53</v>
       </c>
       <c r="I34" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>A8E9</v>
+        <v>44A5</v>
       </c>
       <c r="J34" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>8C81</v>
+        <v>6ADF</v>
       </c>
       <c r="K34" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>6B4E</v>
+        <v>70C9</v>
       </c>
       <c r="L34" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>8D50</v>
+        <v>315E</v>
       </c>
       <c r="M34" s="28" t="str">
         <f t="shared" ref="M34:AV34" si="4">DEC2HEX(M33)</f>
-        <v>851E</v>
+        <v>79B1</v>
       </c>
       <c r="N34" s="28" t="str">
         <f t="shared" si="4"/>
-        <v>8651</v>
+        <v>6C9A</v>
       </c>
       <c r="O34" s="28" t="str">
         <f t="shared" si="4"/>
-        <v>736D</v>
+        <v>2831</v>
       </c>
       <c r="P34" s="28" t="str">
         <f t="shared" si="4"/>
-        <v>860E</v>
+        <v>703F</v>
       </c>
       <c r="Q34" s="28" t="str">
         <f t="shared" si="4"/>
-        <v>A9D3</v>
+        <v>68CD</v>
       </c>
       <c r="R34" s="28" t="str">
         <f t="shared" si="4"/>
-        <v>3E88</v>
+        <v>2B04</v>
       </c>
       <c r="S34" s="28" t="str">
         <f t="shared" si="4"/>
-        <v>C015</v>
+        <v>7023</v>
       </c>
       <c r="T34" s="28" t="str">
         <f t="shared" si="4"/>
-        <v>8AF9</v>
+        <v>6195</v>
       </c>
       <c r="U34" s="28" t="str">
         <f t="shared" si="4"/>
-        <v>CC47</v>
+        <v>361A</v>
       </c>
       <c r="V34" s="28" t="str">
         <f t="shared" si="4"/>
-        <v>7E05</v>
+        <v>7072</v>
       </c>
       <c r="W34" s="28" t="str">
         <f t="shared" si="4"/>
-        <v>823F</v>
+        <v>7297</v>
       </c>
       <c r="X34" s="28" t="str">
         <f t="shared" si="4"/>
-        <v>500F</v>
+        <v>311B</v>
       </c>
       <c r="Y34" s="29" t="str">
         <f t="shared" si="4"/>
-        <v>8765</v>
+        <v>7A87</v>
       </c>
       <c r="Z34" s="29" t="str">
         <f t="shared" si="4"/>
-        <v>7D48</v>
+        <v>6ABD</v>
       </c>
       <c r="AA34" s="29" t="str">
         <f t="shared" si="4"/>
-        <v>8696</v>
+        <v>22E1</v>
       </c>
       <c r="AB34" s="29" t="str">
         <f t="shared" si="4"/>
-        <v>84EE</v>
+        <v>75E7</v>
       </c>
       <c r="AC34" s="29" t="str">
         <f t="shared" si="4"/>
-        <v>7F81</v>
+        <v>6A7B</v>
       </c>
       <c r="AD34" s="29" t="str">
         <f t="shared" si="4"/>
-        <v>9453</v>
+        <v>10C6B</v>
       </c>
       <c r="AE34" s="29" t="str">
         <f t="shared" si="4"/>
-        <v>8273</v>
+        <v>7365</v>
       </c>
       <c r="AF34" s="29" t="str">
         <f t="shared" si="4"/>
-        <v>827D</v>
+        <v>6B0F</v>
       </c>
       <c r="AG34" s="29" t="str">
         <f t="shared" si="4"/>
-        <v>A37E</v>
+        <v>334F</v>
       </c>
       <c r="AH34" s="29" t="str">
         <f t="shared" si="4"/>
-        <v>920A</v>
+        <v>715A</v>
       </c>
       <c r="AI34" s="29" t="str">
         <f t="shared" si="4"/>
-        <v>92A0</v>
+        <v>7338</v>
       </c>
       <c r="AJ34" s="29" t="str">
         <f t="shared" si="4"/>
-        <v>76F9</v>
+        <v>10925</v>
       </c>
       <c r="AK34" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>815B</v>
+        <v>77F1</v>
       </c>
       <c r="AL34" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>8584</v>
+        <v>7794</v>
       </c>
       <c r="AM34" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>7D1B</v>
+        <v>1ED6</v>
       </c>
       <c r="AN34" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>8F3D</v>
+        <v>6F6A</v>
       </c>
       <c r="AO34" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>83B9</v>
+        <v>636A</v>
       </c>
       <c r="AP34" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>7120</v>
+        <v>3626</v>
       </c>
       <c r="AQ34" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>8975</v>
+        <v>7AA5</v>
       </c>
       <c r="AR34" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>9005</v>
+        <v>5C70</v>
       </c>
       <c r="AS34" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>6160</v>
+        <v>2D4F</v>
       </c>
       <c r="AT34" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>9A33</v>
+        <v>7001</v>
       </c>
       <c r="AU34" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>9614</v>
+        <v>6698</v>
       </c>
       <c r="AV34" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>4DFB</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="36" spans="1:48" x14ac:dyDescent="0.25">
@@ -4353,67 +4354,67 @@
       </c>
       <c r="B38" s="26" t="str">
         <f>A34</f>
-        <v>85E9</v>
+        <v>743F</v>
       </c>
       <c r="C38" s="26" t="str">
         <f>M34</f>
-        <v>851E</v>
+        <v>79B1</v>
       </c>
       <c r="D38" s="26" t="str">
         <f>Y34</f>
-        <v>8765</v>
+        <v>7A87</v>
       </c>
       <c r="E38" s="26" t="str">
         <f>AK34</f>
-        <v>815B</v>
+        <v>77F1</v>
       </c>
       <c r="F38" s="26" t="str">
         <f>D34</f>
-        <v>8711</v>
+        <v>6A20</v>
       </c>
       <c r="G38" s="26" t="str">
         <f>P34</f>
-        <v>860E</v>
+        <v>703F</v>
       </c>
       <c r="H38" s="26" t="str">
         <f>AB34</f>
-        <v>84EE</v>
+        <v>75E7</v>
       </c>
       <c r="I38" s="26" t="str">
         <f>AN34</f>
-        <v>8F3D</v>
+        <v>6F6A</v>
       </c>
       <c r="J38" s="26" t="str">
         <f>G34</f>
-        <v>87A6</v>
+        <v>6D96</v>
       </c>
       <c r="K38" s="26" t="str">
         <f>S34</f>
-        <v>C015</v>
+        <v>7023</v>
       </c>
       <c r="L38" s="26" t="str">
         <f>AE34</f>
-        <v>8273</v>
+        <v>7365</v>
       </c>
       <c r="M38" s="26" t="str">
         <f>AQ34</f>
-        <v>8975</v>
+        <v>7AA5</v>
       </c>
       <c r="N38" s="26" t="str">
         <f>J34</f>
-        <v>8C81</v>
+        <v>6ADF</v>
       </c>
       <c r="O38" s="26" t="str">
         <f>V34</f>
-        <v>7E05</v>
+        <v>7072</v>
       </c>
       <c r="P38" s="26" t="str">
         <f>AH34</f>
-        <v>920A</v>
+        <v>715A</v>
       </c>
       <c r="Q38" s="26" t="str">
         <f>AT34</f>
-        <v>9A33</v>
+        <v>7001</v>
       </c>
     </row>
     <row r="39" spans="1:48" x14ac:dyDescent="0.25">
@@ -4422,67 +4423,67 @@
       </c>
       <c r="B39" s="26" t="str">
         <f>B34</f>
-        <v>8096</v>
+        <v>519B</v>
       </c>
       <c r="C39" s="26" t="str">
         <f>N34</f>
-        <v>8651</v>
+        <v>6C9A</v>
       </c>
       <c r="D39" s="26" t="str">
         <f>Z34</f>
-        <v>7D48</v>
+        <v>6ABD</v>
       </c>
       <c r="E39" s="26" t="str">
         <f>AL34</f>
-        <v>8584</v>
+        <v>7794</v>
       </c>
       <c r="F39" s="26" t="str">
         <f>E34</f>
-        <v>753A</v>
+        <v>74FC</v>
       </c>
       <c r="G39" s="26" t="str">
         <f>Q34</f>
-        <v>A9D3</v>
+        <v>68CD</v>
       </c>
       <c r="H39" s="26" t="str">
         <f>AC34</f>
-        <v>7F81</v>
+        <v>6A7B</v>
       </c>
       <c r="I39" s="26" t="str">
         <f>AO34</f>
-        <v>83B9</v>
+        <v>636A</v>
       </c>
       <c r="J39" s="26" t="str">
         <f>H34</f>
-        <v>7D89</v>
+        <v>5E53</v>
       </c>
       <c r="K39" s="26" t="str">
         <f>T34</f>
-        <v>8AF9</v>
+        <v>6195</v>
       </c>
       <c r="L39" s="26" t="str">
         <f>AF34</f>
-        <v>827D</v>
+        <v>6B0F</v>
       </c>
       <c r="M39" s="26" t="str">
         <f>AR34</f>
-        <v>9005</v>
+        <v>5C70</v>
       </c>
       <c r="N39" s="26" t="str">
         <f>K34</f>
-        <v>6B4E</v>
+        <v>70C9</v>
       </c>
       <c r="O39" s="26" t="str">
         <f>W34</f>
-        <v>823F</v>
+        <v>7297</v>
       </c>
       <c r="P39" s="26" t="str">
         <f>AI34</f>
-        <v>92A0</v>
+        <v>7338</v>
       </c>
       <c r="Q39" s="26" t="str">
         <f>AU34</f>
-        <v>9614</v>
+        <v>6698</v>
       </c>
     </row>
     <row r="40" spans="1:48" x14ac:dyDescent="0.25">
@@ -4491,67 +4492,67 @@
       </c>
       <c r="B40" s="26" t="str">
         <f>C34</f>
-        <v>9D48</v>
+        <v>2B45</v>
       </c>
       <c r="C40" s="26" t="str">
         <f>O34</f>
-        <v>736D</v>
+        <v>2831</v>
       </c>
       <c r="D40" s="26" t="str">
         <f>AA34</f>
-        <v>8696</v>
+        <v>22E1</v>
       </c>
       <c r="E40" s="26" t="str">
         <f>AM34</f>
-        <v>7D1B</v>
+        <v>1ED6</v>
       </c>
       <c r="F40" s="26" t="str">
         <f>F34</f>
-        <v>A8F7</v>
+        <v>3A42</v>
       </c>
       <c r="G40" s="26" t="str">
         <f>R34</f>
-        <v>3E88</v>
+        <v>2B04</v>
       </c>
       <c r="H40" s="26" t="str">
         <f>AD34</f>
-        <v>9453</v>
+        <v>10C6B</v>
       </c>
       <c r="I40" s="26" t="str">
         <f>AP34</f>
-        <v>7120</v>
+        <v>3626</v>
       </c>
       <c r="J40" s="26" t="str">
         <f>I34</f>
-        <v>A8E9</v>
+        <v>44A5</v>
       </c>
       <c r="K40" s="26" t="str">
         <f>U34</f>
-        <v>CC47</v>
+        <v>361A</v>
       </c>
       <c r="L40" s="26" t="str">
         <f>AG34</f>
-        <v>A37E</v>
+        <v>334F</v>
       </c>
       <c r="M40" s="26" t="str">
         <f>AS34</f>
-        <v>6160</v>
+        <v>2D4F</v>
       </c>
       <c r="N40" s="26" t="str">
         <f>L34</f>
-        <v>8D50</v>
+        <v>315E</v>
       </c>
       <c r="O40" s="26" t="str">
         <f>X34</f>
-        <v>500F</v>
+        <v>311B</v>
       </c>
       <c r="P40" s="26" t="str">
         <f>AJ34</f>
-        <v>76F9</v>
+        <v>10925</v>
       </c>
       <c r="Q40" s="26" t="str">
         <f>AV34</f>
-        <v>4DFB</v>
+        <v>3062</v>
       </c>
     </row>
   </sheetData>
